--- a/table/question/question0.xlsx
+++ b/table/question/question0.xlsx
@@ -2365,8 +2365,8 @@
   <sheetPr/>
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4001,7 +4001,7 @@
         <v>188</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>27</v>

--- a/table/question/question0.xlsx
+++ b/table/question/question0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="question0" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="561">
   <si>
     <t>ID</t>
   </si>
@@ -334,9 +334,6 @@
     <t>都不是</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>红色加蓝色得出的是什么颜色？</t>
   </si>
   <si>
@@ -373,13 +370,13 @@
     <t>黄色</t>
   </si>
   <si>
-    <t>在路上行走时，我们应该走？</t>
+    <t>在路上行走时，我们应该走：</t>
   </si>
   <si>
     <t>机动车道</t>
   </si>
   <si>
-    <t>人行横道</t>
+    <t>人行道</t>
   </si>
   <si>
     <t>绿化带</t>
@@ -514,45 +511,6 @@
     <t>其他</t>
   </si>
   <si>
-    <t>2+2=</t>
-  </si>
-  <si>
-    <t>3+6=</t>
-  </si>
-  <si>
-    <t>4+3=</t>
-  </si>
-  <si>
-    <t>5+2=</t>
-  </si>
-  <si>
-    <t>2-1=</t>
-  </si>
-  <si>
-    <t>3-3=</t>
-  </si>
-  <si>
-    <t>4-2=</t>
-  </si>
-  <si>
-    <t>5-0=</t>
-  </si>
-  <si>
-    <t>6-3=</t>
-  </si>
-  <si>
-    <t>1x1=</t>
-  </si>
-  <si>
-    <t>2x2=</t>
-  </si>
-  <si>
-    <t>3x1=</t>
-  </si>
-  <si>
-    <t>4x2=</t>
-  </si>
-  <si>
     <t>爸爸的爸爸叫什么？</t>
   </si>
   <si>
@@ -1336,7 +1294,7 @@
     <t>西汉</t>
   </si>
   <si>
-    <t>中国历史山唯一的女皇帝是：</t>
+    <t>中国历史上唯一的女皇帝是：</t>
   </si>
   <si>
     <t>武则天</t>
@@ -1349,6 +1307,396 @@
   </si>
   <si>
     <t>甄嬛</t>
+  </si>
+  <si>
+    <t>下列事物不存在于天空的是：</t>
+  </si>
+  <si>
+    <t>仙子</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>白云</t>
+  </si>
+  <si>
+    <t>月亮</t>
+  </si>
+  <si>
+    <t>下列食物中不可食用的是：</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>砒霜</t>
+  </si>
+  <si>
+    <t>鸡爪</t>
+  </si>
+  <si>
+    <t>鸭掌</t>
+  </si>
+  <si>
+    <t>春节的时候，按照传统，家里长辈常会给晚辈：</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>坏脸色</t>
+  </si>
+  <si>
+    <t>红包</t>
+  </si>
+  <si>
+    <t>彩礼</t>
+  </si>
+  <si>
+    <t>下列活动中不适合在学校中进行的是：</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>文艺汇演</t>
+  </si>
+  <si>
+    <t>密室逃脱</t>
+  </si>
+  <si>
+    <t>下列物品在家中不常见的是：</t>
+  </si>
+  <si>
+    <t>核反应堆</t>
+  </si>
+  <si>
+    <t>烧水壶</t>
+  </si>
+  <si>
+    <t>拖把</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>下列动物中体型最大的是：</t>
+  </si>
+  <si>
+    <t>鬣狗</t>
+  </si>
+  <si>
+    <t>棕熊</t>
+  </si>
+  <si>
+    <t>野兔</t>
+  </si>
+  <si>
+    <t>袋熊</t>
+  </si>
+  <si>
+    <t>下列家用电器中不能加热食物的是：</t>
+  </si>
+  <si>
+    <t>烤箱</t>
+  </si>
+  <si>
+    <t>微波炉</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>电烤盘</t>
+  </si>
+  <si>
+    <t>下列物品通常不会放在厕所的是：</t>
+  </si>
+  <si>
+    <t>洗浴球</t>
+  </si>
+  <si>
+    <t>浴帽</t>
+  </si>
+  <si>
+    <t>洗洁精</t>
+  </si>
+  <si>
+    <t>音箱</t>
+  </si>
+  <si>
+    <t>中国人在本命年通常会穿戴什么颜色的衣物？</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>夫妻中一方出轨了，我们通常戏称无辜的一方戴了：</t>
+  </si>
+  <si>
+    <t>白帽</t>
+  </si>
+  <si>
+    <t>绿帽</t>
+  </si>
+  <si>
+    <t>红帽</t>
+  </si>
+  <si>
+    <t>蓝帽</t>
+  </si>
+  <si>
+    <t>通常情况下，下列家居用品中价格较低的是：</t>
+  </si>
+  <si>
+    <t>熨斗</t>
+  </si>
+  <si>
+    <t>吸尘器</t>
+  </si>
+  <si>
+    <t>扫帚</t>
+  </si>
+  <si>
+    <t>加湿器</t>
+  </si>
+  <si>
+    <t>下列物品在中国超市内不会销售的是：</t>
+  </si>
+  <si>
+    <t>粮油</t>
+  </si>
+  <si>
+    <t>生鲜肉</t>
+  </si>
+  <si>
+    <t>果蔬</t>
+  </si>
+  <si>
+    <t>枪支</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>JMMKLG</t>
+  </si>
+  <si>
+    <t>OPQRST</t>
+  </si>
+  <si>
+    <t>UVWXYZ</t>
+  </si>
+  <si>
+    <t>秋天到了，大雁要往哪个方向飞？</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>“1 2 5 6 7 8 9”打一成语：</t>
+  </si>
+  <si>
+    <t>丢三落四</t>
+  </si>
+  <si>
+    <t>接二连三</t>
+  </si>
+  <si>
+    <t>不三不四</t>
+  </si>
+  <si>
+    <t>三心二意</t>
+  </si>
+  <si>
+    <t>下列哪个数字长得像耳朵？</t>
+  </si>
+  <si>
+    <t>《百家姓》中的第一个姓氏是：</t>
+  </si>
+  <si>
+    <t>赵</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>传统文化</t>
+  </si>
+  <si>
+    <t>夏季夜间行车时突然感觉到犯困，下列做法正确的是：</t>
+  </si>
+  <si>
+    <t>喝罐啤酒提神</t>
+  </si>
+  <si>
+    <t>边看直播边驾驶</t>
+  </si>
+  <si>
+    <t>立即去就近服务区</t>
+  </si>
+  <si>
+    <t>停在行车道休息</t>
+  </si>
+  <si>
+    <t>如果第二天要长途驾车，那么在前一晚应该：</t>
+  </si>
+  <si>
+    <t>通宵打牌</t>
+  </si>
+  <si>
+    <t>充分休息</t>
+  </si>
+  <si>
+    <t>通宵喝酒</t>
+  </si>
+  <si>
+    <t>工作到深夜</t>
+  </si>
+  <si>
+    <t>“19”里有1个十和几个一？</t>
+  </si>
+  <si>
+    <t>钟表的分针指着12，时针指着1时，是几点？</t>
+  </si>
+  <si>
+    <t>12：00</t>
+  </si>
+  <si>
+    <t>1：00</t>
+  </si>
+  <si>
+    <t>2：00</t>
+  </si>
+  <si>
+    <t>4：00</t>
+  </si>
+  <si>
+    <t>0.50元等于几角钱？</t>
+  </si>
+  <si>
+    <t>5角</t>
+  </si>
+  <si>
+    <t>10角</t>
+  </si>
+  <si>
+    <t>50角</t>
+  </si>
+  <si>
+    <t>100角</t>
+  </si>
+  <si>
+    <t>下列选项中，属于单数的是：</t>
+  </si>
+  <si>
+    <t>5个十和5个一，组成起来的数字是：</t>
+  </si>
+  <si>
+    <t>在钟面上，走得最快的是：</t>
+  </si>
+  <si>
+    <t>秒针</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>时针</t>
+  </si>
+  <si>
+    <t>以上都对</t>
+  </si>
+  <si>
+    <t>在钟面上，走的最慢的是：</t>
+  </si>
+  <si>
+    <t>在常见的钟面上，通常有多少个数字？</t>
+  </si>
+  <si>
+    <t>在钟面上，时针走一个大格是代表过了：</t>
+  </si>
+  <si>
+    <t>0.2小时</t>
+  </si>
+  <si>
+    <t>0.1小时</t>
+  </si>
+  <si>
+    <t>0.5小时</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>最大的三位数比最小的四位数小多少？</t>
+  </si>
+  <si>
+    <t>下列数字中，比169小的是：</t>
+  </si>
+  <si>
+    <t>钢笔每支12元，若买五支钢笔，需要支付多少元？</t>
+  </si>
+  <si>
+    <t>40元</t>
+  </si>
+  <si>
+    <t>50元</t>
+  </si>
+  <si>
+    <t>60元</t>
+  </si>
+  <si>
+    <t>比59多29的数是：</t>
+  </si>
+  <si>
+    <t>在钟面上6时整，分针和时针所成的角是什么角？</t>
+  </si>
+  <si>
+    <t>锐角</t>
+  </si>
+  <si>
+    <t>直角</t>
+  </si>
+  <si>
+    <t>钝角</t>
+  </si>
+  <si>
+    <t>平角</t>
+  </si>
+  <si>
+    <t>超市里买4袋饼干要付8元，买8袋饼干要付多少元？</t>
+  </si>
+  <si>
+    <t>8元</t>
+  </si>
+  <si>
+    <t>16元</t>
+  </si>
+  <si>
+    <t>24元</t>
+  </si>
+  <si>
+    <t>32元</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1709,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,12 +1725,18 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1532,12 +1886,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1855,10 +2215,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1867,34 +2227,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1906,98 +2263,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,42 +2367,48 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2363,47 +2729,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="50.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.00833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="65.0083333333333" style="3" customWidth="1"/>
+    <col min="3" max="6" width="18.0083333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="9.00833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="11.25" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2413,29 +2779,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2445,29 +2811,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2477,29 +2843,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="3">
@@ -2509,29 +2875,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="1">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="3">
@@ -2541,29 +2907,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="1">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3">
@@ -2573,29 +2939,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:10">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="3">
@@ -2605,29 +2971,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="3">
@@ -2637,29 +3003,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:10">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="3">
@@ -2669,29 +3035,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="1">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="3">
@@ -2701,29 +3067,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="3">
@@ -2733,29 +3099,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:10">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="3">
@@ -2765,29 +3131,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:10">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>55</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>56</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>57</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>58</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I13" s="3">
@@ -2797,29 +3163,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:10">
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="3">
@@ -2829,29 +3195,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:10">
-      <c r="A15" s="1">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="3">
@@ -2861,8 +3227,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2893,8 +3259,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:10">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2925,8 +3291,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="1">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2957,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:10">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2989,8 +3355,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:10">
-      <c r="A20" s="1">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3021,8 +3387,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:10">
-      <c r="A21" s="1">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3053,24 +3419,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:10">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>26</v>
@@ -3085,24 +3451,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:10">
-      <c r="A23" s="1">
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>29</v>
@@ -3117,24 +3483,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:10">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>46</v>
@@ -3149,24 +3515,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>46</v>
@@ -3181,24 +3547,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:10">
-      <c r="A26" s="1">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>26</v>
@@ -3213,24 +3579,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:10">
-      <c r="A27" s="1">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>29</v>
@@ -3245,24 +3611,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:10">
-      <c r="A28" s="1">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>46</v>
@@ -3277,24 +3643,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:10">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>29</v>
@@ -3309,24 +3675,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:10">
-      <c r="A30" s="1">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>46</v>
@@ -3341,24 +3707,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:10">
-      <c r="A31" s="1">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>46</v>
@@ -3373,24 +3739,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1">
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>57</v>
@@ -3405,30 +3771,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:10">
-      <c r="A33" s="1">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -3437,12 +3803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" customHeight="1" spans="1:10">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="13">
         <v>1</v>
@@ -3460,39 +3826,39 @@
         <v>46</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="14">
-        <v>2</v>
-      </c>
-      <c r="D35" s="14">
-        <v>3</v>
-      </c>
-      <c r="E35" s="14">
-        <v>4</v>
-      </c>
-      <c r="F35" s="14">
-        <v>6</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>57</v>
+      <c r="D35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -3501,62 +3867,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1">
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="14">
-        <v>4</v>
-      </c>
-      <c r="D36" s="14">
-        <v>6</v>
-      </c>
-      <c r="E36" s="14">
-        <v>8</v>
-      </c>
-      <c r="F36" s="14">
-        <v>9</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="14">
-        <v>5</v>
-      </c>
-      <c r="D37" s="14">
-        <v>6</v>
-      </c>
-      <c r="E37" s="14">
-        <v>7</v>
-      </c>
-      <c r="F37" s="14">
-        <v>8</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>57</v>
+      <c r="G37" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -3565,30 +3931,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1">
+    <row r="38" customHeight="1" spans="1:10">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="14">
-        <v>3</v>
-      </c>
-      <c r="D38" s="14">
-        <v>5</v>
-      </c>
-      <c r="E38" s="14">
-        <v>7</v>
-      </c>
-      <c r="F38" s="14">
-        <v>8</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>57</v>
+        <v>176</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -3597,30 +3963,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" customHeight="1" spans="1:10">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2</v>
-      </c>
-      <c r="E39" s="14">
-        <v>3</v>
-      </c>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -3629,126 +3995,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1">
+    <row r="40" customHeight="1" spans="1:10">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="14">
-        <v>0</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
-        <v>3</v>
-      </c>
-      <c r="F40" s="14">
-        <v>6</v>
-      </c>
-      <c r="G40" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="14">
-        <v>2</v>
-      </c>
-      <c r="D41" s="14">
-        <v>4</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14">
-        <v>6</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="H41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <v>5</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14">
-        <v>4</v>
-      </c>
-      <c r="G42" s="14" t="s">
+      <c r="H42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:10">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14">
-        <v>6</v>
-      </c>
-      <c r="E43" s="14">
-        <v>3</v>
-      </c>
-      <c r="F43" s="14">
-        <v>2</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3757,30 +4123,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" customHeight="1" spans="1:10">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="14">
-        <v>1</v>
-      </c>
-      <c r="D44" s="14">
-        <v>2</v>
-      </c>
-      <c r="E44" s="14">
-        <v>3</v>
-      </c>
-      <c r="F44" s="14">
-        <v>4</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>29</v>
+        <v>188</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3789,30 +4155,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1">
+    <row r="45" customHeight="1" spans="1:10">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="14">
-        <v>2</v>
-      </c>
-      <c r="D45" s="14">
-        <v>4</v>
-      </c>
-      <c r="E45" s="14">
-        <v>8</v>
-      </c>
-      <c r="F45" s="14">
-        <v>6</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>46</v>
+        <v>189</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3821,30 +4187,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1">
+    <row r="46" customHeight="1" spans="1:10">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="14">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14">
-        <v>3</v>
-      </c>
-      <c r="E46" s="14">
-        <v>4</v>
-      </c>
-      <c r="F46" s="14">
-        <v>6</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>46</v>
+        <v>191</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3853,30 +4219,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1">
+    <row r="47" customHeight="1" spans="1:10">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="14">
-        <v>2</v>
-      </c>
-      <c r="D47" s="14">
-        <v>4</v>
-      </c>
-      <c r="E47" s="14">
-        <v>6</v>
-      </c>
-      <c r="F47" s="14">
-        <v>8</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>26</v>
+      <c r="E47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3885,24 +4251,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1">
+    <row r="48" customHeight="1" spans="1:10">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>29</v>
@@ -3917,24 +4283,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" customHeight="1" spans="1:10">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>29</v>
@@ -3949,27 +4315,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1">
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>27</v>
@@ -3981,24 +4347,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1">
+    <row r="51" customHeight="1" spans="1:10">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>46</v>
@@ -4013,24 +4379,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1">
+    <row r="52" customHeight="1" spans="1:10">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>29</v>
@@ -4045,27 +4411,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1">
+    <row r="53" customHeight="1" spans="1:10">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>27</v>
@@ -4077,30 +4443,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" customHeight="1" spans="1:10">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -4109,30 +4475,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1">
+    <row r="55" customHeight="1" spans="1:10">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -4141,62 +4507,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1">
+    <row r="56" customHeight="1" spans="1:10">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:10">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1">
-        <v>54</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -4205,30 +4571,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
+    <row r="58" customHeight="1" spans="1:10">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4237,30 +4603,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" customHeight="1" spans="1:10">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -4269,30 +4635,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
+    <row r="60" customHeight="1" spans="1:10">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -4301,62 +4667,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
+    <row r="61" customHeight="1" spans="1:10">
+      <c r="A61" s="3">
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:10">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>59</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="F62" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4365,30 +4731,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
+    <row r="63" customHeight="1" spans="1:10">
+      <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>46</v>
+      <c r="B63" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
@@ -4397,30 +4763,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" customHeight="1" spans="1:10">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="B64" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
@@ -4429,30 +4795,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1">
+    <row r="65" customHeight="1" spans="1:10">
+      <c r="A65" s="3">
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
@@ -4461,30 +4827,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1">
+    <row r="66" customHeight="1" spans="1:10">
+      <c r="A66" s="3">
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4493,24 +4859,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
+    <row r="67" customHeight="1" spans="1:10">
+      <c r="A67" s="3">
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>29</v>
@@ -4525,27 +4891,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
+    <row r="68" customHeight="1" spans="1:10">
+      <c r="A68" s="3">
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>63</v>
@@ -4557,27 +4923,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" customHeight="1" spans="1:10">
       <c r="A69" s="3">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>63</v>
@@ -4589,27 +4955,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
+    <row r="70" customHeight="1" spans="1:10">
+      <c r="A70" s="3">
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>63</v>
@@ -4621,27 +4987,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
+    <row r="71" customHeight="1" spans="1:10">
+      <c r="A71" s="3">
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>63</v>
@@ -4653,27 +5019,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
+    <row r="72" customHeight="1" spans="1:10">
+      <c r="A72" s="3">
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>63</v>
@@ -4685,30 +5051,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
+    <row r="73" customHeight="1" spans="1:16">
+      <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>29</v>
+      <c r="B73" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
@@ -4716,31 +5082,35 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:16">
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>26</v>
+      <c r="B74" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
@@ -4748,31 +5118,35 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:16">
+      <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>26</v>
+      <c r="B75" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
@@ -4780,31 +5154,35 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:16">
+      <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>26</v>
+      <c r="B76" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -4812,31 +5190,35 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:16">
+      <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>46</v>
+      <c r="B77" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
@@ -4844,31 +5226,35 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:16">
+      <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="B78" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
@@ -4876,31 +5262,35 @@
       <c r="J78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="B79" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
@@ -4909,126 +5299,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="B80" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:10">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:10">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>78</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>79</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>80</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5037,30 +5427,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" customHeight="1" spans="1:10">
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>29</v>
+      <c r="B84" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I84" s="3">
         <v>0</v>
@@ -5069,30 +5459,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
+    <row r="85" customHeight="1" spans="1:10">
+      <c r="A85" s="3">
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>285</v>
+        <v>315</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
@@ -5101,26 +5491,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="1">
+    <row r="86" customHeight="1" spans="1:10">
+      <c r="A86" s="3">
         <v>83</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G86" s="11" t="s">
+      <c r="B86" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -5132,35 +5522,31 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="A87" s="1">
+    </row>
+    <row r="87" customHeight="1" spans="1:10">
+      <c r="A87" s="3">
         <v>84</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>294</v>
+        <v>317</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
@@ -5168,35 +5554,31 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" spans="1:16">
-      <c r="A88" s="1">
+    </row>
+    <row r="88" customHeight="1" spans="1:10">
+      <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>46</v>
+      <c r="B88" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
@@ -5204,107 +5586,95 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" spans="1:16">
+    </row>
+    <row r="89" customHeight="1" spans="1:10">
       <c r="A89" s="3">
         <v>86</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G89" s="11" t="s">
+      <c r="B89" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="1">
-        <v>87</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G90" s="11" t="s">
+      <c r="H90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:10">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
-        <v>0</v>
-      </c>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="1">
-        <v>88</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E91" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5312,35 +5682,31 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
+    </row>
+    <row r="92" customHeight="1" spans="1:10">
+      <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>29</v>
+      <c r="B92" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
@@ -5349,30 +5715,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1">
+    <row r="93" customHeight="1" spans="1:10">
+      <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G93" s="11" t="s">
+      <c r="B93" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
@@ -5381,30 +5747,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" customHeight="1" spans="1:10">
       <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>46</v>
+      <c r="B94" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5413,30 +5779,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
+    <row r="95" customHeight="1" spans="1:10">
+      <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>26</v>
+      <c r="B95" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
@@ -5445,30 +5811,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
+    <row r="96" customHeight="1" spans="1:10">
+      <c r="A96" s="3">
         <v>93</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G96" s="13" t="s">
+      <c r="B96" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5477,30 +5843,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
+    <row r="97" customHeight="1" spans="1:10">
+      <c r="A97" s="3">
         <v>94</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>46</v>
+      <c r="B97" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
@@ -5509,30 +5875,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1">
+    <row r="98" customHeight="1" spans="1:10">
+      <c r="A98" s="3">
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>328</v>
+        <v>355</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I98" s="3">
         <v>0</v>
@@ -5541,27 +5907,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" customHeight="1" spans="1:10">
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>57</v>
+      <c r="B99" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="10">
+        <v>120</v>
+      </c>
+      <c r="D99" s="10">
+        <v>119</v>
+      </c>
+      <c r="E99" s="10">
+        <v>122</v>
+      </c>
+      <c r="F99" s="10">
+        <v>110</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>27</v>
@@ -5573,126 +5939,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1">
+    <row r="100" customHeight="1" spans="1:10">
+      <c r="A100" s="3">
         <v>97</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G100" s="8" t="s">
+      <c r="B100" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" s="10">
+        <v>120</v>
+      </c>
+      <c r="D100" s="10">
+        <v>119</v>
+      </c>
+      <c r="E100" s="10">
+        <v>122</v>
+      </c>
+      <c r="F100" s="10">
+        <v>110</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="10">
+        <v>120</v>
+      </c>
+      <c r="D101" s="10">
+        <v>119</v>
+      </c>
+      <c r="E101" s="10">
+        <v>122</v>
+      </c>
+      <c r="F101" s="10">
+        <v>110</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:10">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1">
-        <v>98</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1">
-        <v>99</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="1" spans="1:10">
-      <c r="A103" s="1">
-        <v>100</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H103" s="3" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
@@ -5701,30 +6067,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" customHeight="1" spans="1:10">
       <c r="A104" s="3">
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -5733,30 +6099,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="1">
+    <row r="105" customHeight="1" spans="1:10">
+      <c r="A105" s="3">
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="I105" s="3">
         <v>0</v>
@@ -5765,94 +6131,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="1">
+    <row r="106" customHeight="1" spans="1:10">
+      <c r="A106" s="3">
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:10">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:10">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="1">
-        <v>104</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="1">
-        <v>105</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H108" s="3" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="I108" s="3">
         <v>0</v>
@@ -5861,30 +6227,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" customHeight="1" spans="1:10">
       <c r="A109" s="3">
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="I109" s="3">
         <v>0</v>
@@ -5893,26 +6259,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="1">
+    <row r="110" customHeight="1" spans="1:10">
+      <c r="A110" s="3">
         <v>107</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="B110" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G110" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -5925,27 +6291,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1">
+    <row r="111" customHeight="1" spans="1:10">
+      <c r="A111" s="3">
         <v>108</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>29</v>
+      <c r="B111" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>63</v>
@@ -5957,62 +6323,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1">
+    <row r="112" customHeight="1" spans="1:10">
+      <c r="A112" s="3">
         <v>109</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C112" s="7">
-        <v>120</v>
-      </c>
-      <c r="D112" s="7">
-        <v>119</v>
-      </c>
-      <c r="E112" s="7">
-        <v>122</v>
-      </c>
-      <c r="F112" s="7">
+      <c r="B112" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:10">
+      <c r="A113" s="3">
         <v>110</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="B113" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1">
-        <v>110</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="7">
-        <v>120</v>
-      </c>
-      <c r="D113" s="7">
-        <v>119</v>
-      </c>
-      <c r="E113" s="7">
-        <v>122</v>
-      </c>
-      <c r="F113" s="7">
-        <v>110</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H113" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I113" s="3">
         <v>0</v>
@@ -6021,94 +6387,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" customHeight="1" spans="1:10">
       <c r="A114" s="3">
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C114" s="7">
-        <v>120</v>
-      </c>
-      <c r="D114" s="7">
-        <v>119</v>
-      </c>
-      <c r="E114" s="7">
-        <v>122</v>
-      </c>
-      <c r="F114" s="7">
-        <v>110</v>
+        <v>392</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:10">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:10">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1">
-        <v>112</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I115" s="3">
-        <v>0</v>
-      </c>
-      <c r="J115" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="1">
-        <v>113</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H116" s="3" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -6117,30 +6483,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="1">
+    <row r="117" customHeight="1" spans="1:10">
+      <c r="A117" s="3">
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="I117" s="3">
         <v>0</v>
@@ -6149,30 +6515,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="1">
+    <row r="118" customHeight="1" spans="1:10">
+      <c r="A118" s="3">
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
@@ -6181,126 +6547,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" customHeight="1" spans="1:10">
       <c r="A119" s="3">
         <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="G119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:10">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:10">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="1">
-        <v>117</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="H121" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:10">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0</v>
-      </c>
-      <c r="J120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="1">
-        <v>118</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I121" s="3">
-        <v>0</v>
-      </c>
-      <c r="J121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="1">
-        <v>119</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>380</v>
+      <c r="H122" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="I122" s="3">
         <v>0</v>
@@ -6309,30 +6675,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="1">
+    <row r="123" customHeight="1" spans="1:10">
+      <c r="A123" s="3">
         <v>120</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="B123" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G123" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>63</v>
+      <c r="H123" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I123" s="3">
         <v>0</v>
@@ -6341,126 +6707,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" customHeight="1" spans="1:10">
       <c r="A124" s="3">
         <v>121</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="B124" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:10">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I124" s="3">
-        <v>0</v>
-      </c>
-      <c r="J124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="1">
-        <v>122</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="H125" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:10">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I125" s="3">
-        <v>0</v>
-      </c>
-      <c r="J125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="1">
-        <v>123</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:10">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="1">
-        <v>124</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>63</v>
+      <c r="H127" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I127" s="3">
         <v>0</v>
@@ -6469,30 +6835,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1">
+    <row r="128" customHeight="1" spans="1:10">
+      <c r="A128" s="3">
         <v>125</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>63</v>
+      <c r="B128" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
@@ -6501,158 +6867,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" customHeight="1" spans="1:10">
       <c r="A129" s="3">
         <v>126</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="B129" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:10">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:10">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:10">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I129" s="3">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="1">
-        <v>127</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I130" s="3">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="1">
-        <v>128</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="H132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:10">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I131" s="3">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1">
-        <v>129</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I132" s="3">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="1">
-        <v>130</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>421</v>
+      <c r="H133" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I133" s="3">
         <v>0</v>
@@ -6661,67 +7027,739 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" customHeight="1" spans="1:10">
       <c r="A134" s="3">
         <v>131</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="B134" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:10">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="G135" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I134" s="3">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="1">
-        <v>132</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:10">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:10">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" s="3">
+      <c r="H137" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:10">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138" s="5">
+        <v>3</v>
+      </c>
+      <c r="D138" s="5">
+        <v>4</v>
+      </c>
+      <c r="E138" s="5">
+        <v>6</v>
+      </c>
+      <c r="F138" s="5">
+        <v>8</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:10">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:10">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:10">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:10">
+      <c r="A142" s="3">
+        <v>139</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="D142" s="5">
+        <v>9</v>
+      </c>
+      <c r="E142" s="5">
+        <v>10</v>
+      </c>
+      <c r="F142" s="5">
+        <v>19</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:10">
+      <c r="A143" s="3">
+        <v>140</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:10">
+      <c r="A144" s="3">
+        <v>141</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:10">
+      <c r="A145" s="3">
+        <v>142</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C145" s="5">
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
+        <v>8</v>
+      </c>
+      <c r="E145" s="5">
+        <v>2</v>
+      </c>
+      <c r="F145" s="5">
+        <v>9</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:10">
+      <c r="A146" s="3">
+        <v>143</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" s="5">
+        <v>15</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20</v>
+      </c>
+      <c r="E146" s="5">
+        <v>51</v>
+      </c>
+      <c r="F146" s="5">
+        <v>55</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:10">
+      <c r="A147" s="3">
+        <v>144</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:10">
+      <c r="A148" s="3">
+        <v>145</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:10">
+      <c r="A149" s="3">
+        <v>146</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C149" s="5">
+        <v>6</v>
+      </c>
+      <c r="D149" s="5">
+        <v>12</v>
+      </c>
+      <c r="E149" s="5">
+        <v>18</v>
+      </c>
+      <c r="F149" s="5">
+        <v>24</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:10">
+      <c r="A150" s="3">
+        <v>147</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:10">
+      <c r="A151" s="3">
+        <v>148</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1</v>
+      </c>
+      <c r="D151" s="5">
+        <v>89</v>
+      </c>
+      <c r="E151" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F151" s="5">
+        <v>9899</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:10">
+      <c r="A152" s="3">
+        <v>149</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C152" s="5">
+        <v>212</v>
+      </c>
+      <c r="D152" s="5">
+        <v>165</v>
+      </c>
+      <c r="E152" s="5">
+        <v>185</v>
+      </c>
+      <c r="F152" s="5">
+        <v>179</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:10">
+      <c r="A153" s="3">
+        <v>150</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:10">
+      <c r="A154" s="3">
+        <v>151</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="5">
+        <v>68</v>
+      </c>
+      <c r="D154" s="5">
+        <v>78</v>
+      </c>
+      <c r="E154" s="5">
+        <v>88</v>
+      </c>
+      <c r="F154" s="5">
+        <v>98</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0</v>
+      </c>
+      <c r="J154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:10">
+      <c r="A155" s="3">
+        <v>152</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:10">
+      <c r="A156" s="3">
+        <v>153</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3">
         <v>0</v>
       </c>
     </row>

--- a/table/question/question0.xlsx
+++ b/table/question/question0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="784">
   <si>
     <t>ID</t>
   </si>
@@ -106,21 +106,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>麻将中，四张相同的牌可以做什么？</t>
-  </si>
-  <si>
-    <t>开胡</t>
-  </si>
-  <si>
-    <t>碰</t>
-  </si>
-  <si>
-    <t>吃</t>
-  </si>
-  <si>
-    <t>开杠</t>
-  </si>
-  <si>
     <t>加拿大国旗中间的一片叶子是什么植物？</t>
   </si>
   <si>
@@ -487,24 +472,6 @@
     <t>吐在地上</t>
   </si>
   <si>
-    <t>三原色是：</t>
-  </si>
-  <si>
-    <t>红，黄，蓝</t>
-  </si>
-  <si>
-    <t>黄，红，绿</t>
-  </si>
-  <si>
-    <t>红，绿，蓝</t>
-  </si>
-  <si>
-    <t>红，橙，黄</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
     <t>1+1=</t>
   </si>
   <si>
@@ -646,1057 +613,1759 @@
     <t>姐夫</t>
   </si>
   <si>
-    <t>山东的简称是：</t>
-  </si>
-  <si>
-    <t>鲁</t>
-  </si>
-  <si>
-    <t>赣</t>
-  </si>
-  <si>
-    <t>皖</t>
-  </si>
-  <si>
-    <t>晋</t>
-  </si>
-  <si>
-    <t>安徽的简称是：</t>
-  </si>
-  <si>
-    <t>福建的简称是：</t>
-  </si>
-  <si>
-    <t>闽</t>
-  </si>
-  <si>
-    <t>江西的简称是：</t>
-  </si>
-  <si>
-    <t>河南的简称是：</t>
-  </si>
-  <si>
-    <t>豫</t>
-  </si>
-  <si>
-    <t>河北的简称是：</t>
-  </si>
-  <si>
-    <t>鄂</t>
-  </si>
-  <si>
-    <t>冀</t>
-  </si>
-  <si>
-    <t>湖北的简称是：</t>
-  </si>
-  <si>
-    <t>山西的简称是：</t>
-  </si>
-  <si>
-    <t>湖南的简称是：</t>
-  </si>
-  <si>
-    <t>湘</t>
-  </si>
-  <si>
-    <t>云南的省会是：</t>
-  </si>
-  <si>
-    <t>西双版纳</t>
-  </si>
-  <si>
-    <t>大理</t>
-  </si>
-  <si>
-    <t>丽江</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
-    <t>陕西的省会是：</t>
-  </si>
-  <si>
-    <t>太原</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>咸阳</t>
-  </si>
-  <si>
-    <t>榆林</t>
-  </si>
-  <si>
-    <t>山西的省会是：</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>大同</t>
-  </si>
-  <si>
-    <t>吉林的省会是：</t>
-  </si>
-  <si>
-    <t>长春</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>哈尔滨</t>
-  </si>
-  <si>
-    <t>河北的省会是：</t>
-  </si>
-  <si>
-    <t>石家庄</t>
-  </si>
-  <si>
-    <t>保定</t>
-  </si>
-  <si>
-    <t>唐山</t>
-  </si>
-  <si>
-    <t>邯郸</t>
-  </si>
-  <si>
-    <t>辽宁的省会是：</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>铁岭</t>
-  </si>
-  <si>
-    <t>江苏的省会是：</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>徐州</t>
-  </si>
-  <si>
-    <t>江西的省会是：</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>赣州</t>
+    <t>我国的首都是：</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>月饼是中国哪一节日的传统食物？</t>
+  </si>
+  <si>
+    <t>清明节</t>
+  </si>
+  <si>
+    <t>中秋节</t>
+  </si>
+  <si>
+    <t>端午节</t>
+  </si>
+  <si>
+    <t>元宵节</t>
+  </si>
+  <si>
+    <t>元宵是中国哪一节日的传统食物？</t>
+  </si>
+  <si>
+    <t>粽子是中国哪一节日的传统食物？</t>
+  </si>
+  <si>
+    <t>在我国，需要紧急医疗救助时可以拨打：</t>
+  </si>
+  <si>
+    <t>在我国，人身安全受到威胁时可拨打：</t>
+  </si>
+  <si>
+    <t>在我国，遇到火灾可拨打：</t>
+  </si>
+  <si>
+    <t>下列事物不存在于天空的是：</t>
+  </si>
+  <si>
+    <t>仙子</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>白云</t>
+  </si>
+  <si>
+    <t>月亮</t>
+  </si>
+  <si>
+    <t>下列食物中不可食用的是：</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>砒霜</t>
+  </si>
+  <si>
+    <t>鸡爪</t>
+  </si>
+  <si>
+    <t>鸭掌</t>
+  </si>
+  <si>
+    <t>春节的时候，按照传统，家里长辈常会给晚辈：</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>坏脸色</t>
+  </si>
+  <si>
+    <t>红包</t>
+  </si>
+  <si>
+    <t>彩礼</t>
+  </si>
+  <si>
+    <t>下列活动中不适合在学校中进行的是：</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>文艺汇演</t>
+  </si>
+  <si>
+    <t>密室逃脱</t>
+  </si>
+  <si>
+    <t>下列物品在家中不常见的是：</t>
+  </si>
+  <si>
+    <t>核反应堆</t>
+  </si>
+  <si>
+    <t>烧水壶</t>
+  </si>
+  <si>
+    <t>拖把</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>下列动物中体型最大的是：</t>
+  </si>
+  <si>
+    <t>鬣狗</t>
+  </si>
+  <si>
+    <t>棕熊</t>
+  </si>
+  <si>
+    <t>野兔</t>
+  </si>
+  <si>
+    <t>袋熊</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>下列家用电器中不能加热食物的是：</t>
+  </si>
+  <si>
+    <t>烤箱</t>
+  </si>
+  <si>
+    <t>微波炉</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>电烤盘</t>
+  </si>
+  <si>
+    <t>下列物品通常不会放在厕所的是：</t>
+  </si>
+  <si>
+    <t>洗浴球</t>
+  </si>
+  <si>
+    <t>浴帽</t>
+  </si>
+  <si>
+    <t>洗洁精</t>
+  </si>
+  <si>
+    <t>音箱</t>
+  </si>
+  <si>
+    <t>中国人在本命年通常会穿戴什么颜色的衣物？</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>夫妻中一方出轨了，我们通常戏称无辜的一方戴了：</t>
+  </si>
+  <si>
+    <t>白帽</t>
+  </si>
+  <si>
+    <t>绿帽</t>
+  </si>
+  <si>
+    <t>红帽</t>
+  </si>
+  <si>
+    <t>蓝帽</t>
+  </si>
+  <si>
+    <t>通常情况下，下列家居用品中价格较低的是：</t>
+  </si>
+  <si>
+    <t>熨斗</t>
+  </si>
+  <si>
+    <t>吸尘器</t>
+  </si>
+  <si>
+    <t>扫帚</t>
+  </si>
+  <si>
+    <t>加湿器</t>
+  </si>
+  <si>
+    <t>下列物品在中国超市内不会销售的是：</t>
+  </si>
+  <si>
+    <t>粮油</t>
+  </si>
+  <si>
+    <t>生鲜肉</t>
+  </si>
+  <si>
+    <t>果蔬</t>
+  </si>
+  <si>
+    <t>枪支</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>JMAKLG</t>
+  </si>
+  <si>
+    <t>OPQRST</t>
+  </si>
+  <si>
+    <t>UVWXYZ</t>
+  </si>
+  <si>
+    <t>秋天到了，大雁要往哪个方向飞？</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>“1 2 5 6 7 8 9”打一成语：</t>
+  </si>
+  <si>
+    <t>丢三落四</t>
+  </si>
+  <si>
+    <t>接二连三</t>
+  </si>
+  <si>
+    <t>不三不四</t>
+  </si>
+  <si>
+    <t>三心二意</t>
+  </si>
+  <si>
+    <t>下列哪个数字紧跟在2之后？</t>
+  </si>
+  <si>
+    <t>《百家姓》中的第一个姓氏是：</t>
+  </si>
+  <si>
+    <t>赵</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>传统文化</t>
+  </si>
+  <si>
+    <t>夏季夜间行车时突然感觉到犯困，下列做法正确的是：</t>
+  </si>
+  <si>
+    <t>喝罐啤酒提神</t>
+  </si>
+  <si>
+    <t>边看直播边驾驶</t>
+  </si>
+  <si>
+    <t>立即去就近服务区</t>
+  </si>
+  <si>
+    <t>停在行车道休息</t>
+  </si>
+  <si>
+    <t>如果第二天要长途驾车，那么在前一晚应该：</t>
+  </si>
+  <si>
+    <t>通宵打牌</t>
+  </si>
+  <si>
+    <t>充分休息</t>
+  </si>
+  <si>
+    <t>通宵喝酒</t>
+  </si>
+  <si>
+    <t>工作到深夜</t>
+  </si>
+  <si>
+    <t>“19”里有1个十和几个一？</t>
+  </si>
+  <si>
+    <t>钟表的分针指着12，时针指着1时，是几点？</t>
+  </si>
+  <si>
+    <t>12：00</t>
+  </si>
+  <si>
+    <t>1：00</t>
+  </si>
+  <si>
+    <t>2：00</t>
+  </si>
+  <si>
+    <t>4：00</t>
+  </si>
+  <si>
+    <t>0.50元等于几角钱？</t>
+  </si>
+  <si>
+    <t>5角</t>
+  </si>
+  <si>
+    <t>10角</t>
+  </si>
+  <si>
+    <t>50角</t>
+  </si>
+  <si>
+    <t>100角</t>
+  </si>
+  <si>
+    <t>下列选项中，属于单数的是：</t>
+  </si>
+  <si>
+    <t>5个十和5个一，组成起来的数字是：</t>
+  </si>
+  <si>
+    <t>在钟面上，走得最快的是：</t>
+  </si>
+  <si>
+    <t>秒针</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>时针</t>
+  </si>
+  <si>
+    <t>以上都对</t>
+  </si>
+  <si>
+    <t>在钟面上，走的最慢的是：</t>
+  </si>
+  <si>
+    <t>在常见的钟面上，通常有多少个数字？</t>
+  </si>
+  <si>
+    <t>在钟面上，时针走一个大格是代表过了：</t>
+  </si>
+  <si>
+    <t>0.2小时</t>
+  </si>
+  <si>
+    <t>0.1小时</t>
+  </si>
+  <si>
+    <t>0.5小时</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>最大的三位数比最小的四位数小多少？</t>
+  </si>
+  <si>
+    <t>下列数字中，比169小的是：</t>
+  </si>
+  <si>
+    <t>钢笔每支12元，若买五支钢笔，需要支付多少元？</t>
+  </si>
+  <si>
+    <t>40元</t>
+  </si>
+  <si>
+    <t>50元</t>
+  </si>
+  <si>
+    <t>60元</t>
+  </si>
+  <si>
+    <t>比59多29的数是：</t>
+  </si>
+  <si>
+    <t>在钟面上6时整，分针和时针所成的角是什么角？</t>
+  </si>
+  <si>
+    <t>锐角</t>
+  </si>
+  <si>
+    <t>直角</t>
+  </si>
+  <si>
+    <t>钝角</t>
+  </si>
+  <si>
+    <t>平角</t>
+  </si>
+  <si>
+    <t>超市里买4袋饼干要付8元，买8袋饼干要付多少元？</t>
+  </si>
+  <si>
+    <t>8元</t>
+  </si>
+  <si>
+    <t>16元</t>
+  </si>
+  <si>
+    <t>24元</t>
+  </si>
+  <si>
+    <t>32元</t>
+  </si>
+  <si>
+    <t>下列行为中属于文明交往的是：</t>
+  </si>
+  <si>
+    <t>与人谈话心不在焉</t>
+  </si>
+  <si>
+    <t>贸然打断别人谈话</t>
+  </si>
+  <si>
+    <t>在交际时面带微笑</t>
+  </si>
+  <si>
+    <t>与人谈话东张西望</t>
+  </si>
+  <si>
+    <t>下列属于我国违禁物品的是：</t>
+  </si>
+  <si>
+    <t>军火弹药</t>
+  </si>
+  <si>
+    <t>毛线</t>
+  </si>
+  <si>
+    <t>沐浴露</t>
+  </si>
+  <si>
+    <t>隐形眼镜</t>
+  </si>
+  <si>
+    <t>下列动物中，不属于猫科动物的是：</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>雪豹</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>用于句子结尾，表示惊叹的标点符号是：</t>
+  </si>
+  <si>
+    <t>叹号</t>
+  </si>
+  <si>
+    <t>问号</t>
+  </si>
+  <si>
+    <t>句号</t>
+  </si>
+  <si>
+    <t>括号</t>
+  </si>
+  <si>
+    <t>用于疑问句句型末尾的标点符号是：</t>
+  </si>
+  <si>
+    <t>分号</t>
+  </si>
+  <si>
+    <t>下列选项中，属于国家保护动物之一的是：</t>
+  </si>
+  <si>
+    <t>蚊子</t>
+  </si>
+  <si>
+    <t>鲫鱼</t>
+  </si>
+  <si>
+    <t>大熊猫</t>
+  </si>
+  <si>
+    <t>哈士奇</t>
+  </si>
+  <si>
+    <t>小明折了9只纸飞机，比小军少折3只，小军折了几只纸飞机？</t>
+  </si>
+  <si>
+    <t>3只</t>
+  </si>
+  <si>
+    <t>6只</t>
+  </si>
+  <si>
+    <t>9只</t>
+  </si>
+  <si>
+    <t>12只</t>
+  </si>
+  <si>
+    <t>正方形有几个直角？</t>
+  </si>
+  <si>
+    <t>2个</t>
+  </si>
+  <si>
+    <t>在人很多的食堂用餐时，下列做法正确的是：</t>
+  </si>
+  <si>
+    <t>找空隙插队</t>
+  </si>
+  <si>
+    <t>挤作一团</t>
+  </si>
+  <si>
+    <t>主动有序排队</t>
+  </si>
+  <si>
+    <t>大声咒骂</t>
+  </si>
+  <si>
+    <t>下列大学中，本部在首都北京的是：</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>厦门大学</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
+    <t>下列选项中，常用来劈开木头的最佳工具是：</t>
+  </si>
+  <si>
+    <t>钉锤</t>
+  </si>
+  <si>
+    <t>螺丝刀</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>扳手</t>
+  </si>
+  <si>
+    <t>下列哪种场合不会用到身份证？</t>
+  </si>
+  <si>
+    <t>在酒店办理入住</t>
+  </si>
+  <si>
+    <t>乘坐火车或飞机</t>
+  </si>
+  <si>
+    <t>参加考研考试</t>
+  </si>
+  <si>
+    <t>参加生日聚会</t>
+  </si>
+  <si>
+    <t>下列场所中，可以踢足球的是：</t>
+  </si>
+  <si>
+    <t>商场</t>
+  </si>
+  <si>
+    <t>足球场</t>
+  </si>
+  <si>
+    <t>楼道</t>
+  </si>
+  <si>
+    <t>教室内</t>
+  </si>
+  <si>
+    <t>我国的国家通用语言是：</t>
+  </si>
+  <si>
+    <t>蒙古语</t>
+  </si>
+  <si>
+    <t>维吾尔族语</t>
+  </si>
+  <si>
+    <t>闽南语</t>
+  </si>
+  <si>
+    <t>普通话</t>
+  </si>
+  <si>
+    <t>下列属于月球特征的是：</t>
+  </si>
+  <si>
+    <t>表面昼夜温差不大</t>
+  </si>
+  <si>
+    <t>没有大气层</t>
+  </si>
+  <si>
+    <t>生活着许多生物</t>
+  </si>
+  <si>
+    <t>有月亮</t>
+  </si>
+  <si>
+    <t>下列属于社会主义文明道德风气的是：</t>
+  </si>
+  <si>
+    <t>诚实守信</t>
+  </si>
+  <si>
+    <t>横穿马路</t>
+  </si>
+  <si>
+    <t>破坏公物</t>
+  </si>
+  <si>
+    <t>占用消防通道</t>
+  </si>
+  <si>
+    <t>下列行为中，不属于触犯他人隐私的是：</t>
+  </si>
+  <si>
+    <t>偷看他人短信</t>
+  </si>
+  <si>
+    <t>检查学生上交作业</t>
+  </si>
+  <si>
+    <t>拆毁他人邮件</t>
+  </si>
+  <si>
+    <t>盗拿他人快递</t>
+  </si>
+  <si>
+    <t>下列行为中，恰当的一项是：</t>
+  </si>
+  <si>
+    <t>翻越马路栅栏</t>
+  </si>
+  <si>
+    <t>红灯停，绿灯行</t>
+  </si>
+  <si>
+    <t>抄近路，踩草坪</t>
+  </si>
+  <si>
+    <t>站在道路中央</t>
+  </si>
+  <si>
+    <t>下列选项中，可以用来称量物体的工具是：</t>
+  </si>
+  <si>
+    <t>培养基</t>
+  </si>
+  <si>
+    <t>天平</t>
+  </si>
+  <si>
+    <t>放大镜</t>
+  </si>
+  <si>
+    <t>烧杯</t>
+  </si>
+  <si>
+    <t>中国境内连接香港、珠海和澳门的跨海大桥是：</t>
+  </si>
+  <si>
+    <t>港珠澳大桥</t>
+  </si>
+  <si>
+    <t>胶州湾大桥</t>
+  </si>
+  <si>
+    <t>杭州湾大桥</t>
+  </si>
+  <si>
+    <t>四渡河大桥</t>
+  </si>
+  <si>
+    <t>下列属于现代通信的是：</t>
+  </si>
+  <si>
+    <t>烽火传军情</t>
+  </si>
+  <si>
+    <t>飞鸽传信</t>
+  </si>
+  <si>
+    <t>找专业信客</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>下列属于空中交通工具的是：</t>
+  </si>
+  <si>
+    <t>高铁</t>
+  </si>
+  <si>
+    <t>轿车</t>
+  </si>
+  <si>
+    <t>下列节日中不属于中国传统节日的是：</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>重阳节</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>下列生活方式，属于绿色低碳生活的是：</t>
+  </si>
+  <si>
+    <t>常用一次性筷子</t>
+  </si>
+  <si>
+    <t>开车去动物园</t>
+  </si>
+  <si>
+    <t>随手关灯</t>
+  </si>
+  <si>
+    <t>使用一次性塑料袋</t>
+  </si>
+  <si>
+    <t>下列选项中为液态的是：</t>
+  </si>
+  <si>
+    <t>毛巾</t>
+  </si>
+  <si>
+    <t>眼泪</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>身份证丢失后，去哪里可以补办？</t>
+  </si>
+  <si>
+    <t>邮局</t>
+  </si>
+  <si>
+    <t>公安局或派出所</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>妈妈和外婆是什么关系？</t>
+  </si>
+  <si>
+    <t>母女关系</t>
+  </si>
+  <si>
+    <t>夫妻关系</t>
+  </si>
+  <si>
+    <t>姐妹关系</t>
+  </si>
+  <si>
+    <t>仇家关系</t>
+  </si>
+  <si>
+    <t>妈妈和爸爸是什么关系？</t>
+  </si>
+  <si>
+    <t>父女关系</t>
+  </si>
+  <si>
+    <t>陌生人关系</t>
+  </si>
+  <si>
+    <t>叔侄关系</t>
+  </si>
+  <si>
+    <t>新年到了，一般见到亲戚朋友会说什么？</t>
+  </si>
+  <si>
+    <t>天凉了，该破产了</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>皇上臣妾做不到啊</t>
+  </si>
+  <si>
+    <t>新年快乐</t>
+  </si>
+  <si>
+    <t>下列哪一项与其他项不属于同一垃圾分类：</t>
+  </si>
+  <si>
+    <t>剩饭</t>
+  </si>
+  <si>
+    <t>剩菜</t>
+  </si>
+  <si>
+    <t>菜叶</t>
+  </si>
+  <si>
+    <t>运动鞋</t>
+  </si>
+  <si>
+    <t>下列物质中，不能流动的是：</t>
+  </si>
+  <si>
+    <t>空气</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>食用油</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>下列动物中，不属于十二生肖之一的是：</t>
+  </si>
+  <si>
+    <t>鼠</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>兔</t>
+  </si>
+  <si>
+    <t>床上一般不会出现以下哪个物品？</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>棉被</t>
+  </si>
+  <si>
+    <t>枕头</t>
+  </si>
+  <si>
+    <t>浓硫酸</t>
+  </si>
+  <si>
+    <t>下列选项中，一般人们不会穿在身上的是：</t>
+  </si>
+  <si>
+    <t>外套</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>风筝</t>
+  </si>
+  <si>
+    <t>短袖</t>
+  </si>
+  <si>
+    <t>下列哪家商店可以买到汉堡、薯条？</t>
+  </si>
+  <si>
+    <t>肯德基</t>
+  </si>
+  <si>
+    <t>驻马店</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>服装店</t>
+  </si>
+  <si>
+    <t>一般情况下，智能手机不能用来做什么？</t>
+  </si>
+  <si>
+    <t>看视频</t>
+  </si>
+  <si>
+    <t>砍树</t>
+  </si>
+  <si>
+    <t>打电话</t>
+  </si>
+  <si>
+    <t>发短信</t>
+  </si>
+  <si>
+    <t>小明需要买些水果，去以下哪家商店可以买到？</t>
+  </si>
+  <si>
+    <t>水果店</t>
+  </si>
+  <si>
+    <t>美妆店</t>
+  </si>
+  <si>
+    <t>两元店</t>
+  </si>
+  <si>
+    <t>8岁以下的小朋友通常不会做以下哪个行为？</t>
+  </si>
+  <si>
+    <t>学拼音</t>
+  </si>
+  <si>
+    <t>看动画片</t>
+  </si>
+  <si>
+    <t>哭闹</t>
+  </si>
+  <si>
+    <t>独自开车上路</t>
+  </si>
+  <si>
+    <t>下列选项中，人不能喝的是：</t>
+  </si>
+  <si>
+    <t>白开水</t>
+  </si>
+  <si>
+    <t>矿泉水</t>
+  </si>
+  <si>
+    <t>果汁</t>
+  </si>
+  <si>
+    <t>毒液</t>
+  </si>
+  <si>
+    <t>以下场所中，法律规定未成年人不能进入的是：</t>
+  </si>
+  <si>
+    <t>夜店</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>儿童游乐园</t>
+  </si>
+  <si>
+    <t>下列年龄最小的是：</t>
+  </si>
+  <si>
+    <t>新生儿</t>
+  </si>
+  <si>
+    <t>小学生</t>
+  </si>
+  <si>
+    <t>初中生</t>
+  </si>
+  <si>
+    <t>高中生</t>
+  </si>
+  <si>
+    <t>一般情况下，人有几只眼睛？</t>
+  </si>
+  <si>
+    <t>一只</t>
+  </si>
+  <si>
+    <t>两只</t>
+  </si>
+  <si>
+    <t>五只</t>
+  </si>
+  <si>
+    <t>想要几只有几只</t>
+  </si>
+  <si>
+    <t>正常情况下，向对方表示赞美可以用：</t>
+  </si>
+  <si>
+    <t>哇，你好美啊！</t>
+  </si>
+  <si>
+    <t>你好笨啊！</t>
+  </si>
+  <si>
+    <t>你也太矮了吧！</t>
+  </si>
+  <si>
+    <t>你能不能安静下！</t>
+  </si>
+  <si>
+    <t>每年除夕之夜为了庆祝新年而举办的晚会是：</t>
+  </si>
+  <si>
+    <t>“6·18”晚会</t>
+  </si>
+  <si>
+    <t>中秋晚会</t>
+  </si>
+  <si>
+    <t>春节联欢晚会</t>
+  </si>
+  <si>
+    <t>跨年晚会</t>
+  </si>
+  <si>
+    <t>下列不属于我国古代传统游戏的是：</t>
+  </si>
+  <si>
+    <t>投壶</t>
+  </si>
+  <si>
+    <t>王者荣耀</t>
+  </si>
+  <si>
+    <t>曲水流觞</t>
+  </si>
+  <si>
+    <t>斗鸡</t>
+  </si>
+  <si>
+    <t>现实生活中既可以看到人又能听到声音的通信方式是：</t>
+  </si>
+  <si>
+    <t>视频通话</t>
+  </si>
+  <si>
+    <t>飞鸽传书</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>电话魔法</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>下列属于我国过年习俗的是：</t>
+  </si>
+  <si>
+    <t>吃团圆饭</t>
+  </si>
+  <si>
+    <t>吃蛋糕</t>
+  </si>
+  <si>
+    <t>吃冰淇淋</t>
+  </si>
+  <si>
+    <t>看《甄嬛传》</t>
+  </si>
+  <si>
+    <t>在接触互联网时，下列做法不正确的是：</t>
+  </si>
+  <si>
+    <t>避免泄露隐私</t>
+  </si>
+  <si>
+    <t>远离不良信息</t>
+  </si>
+  <si>
+    <t>慎重网上交友</t>
+  </si>
+  <si>
+    <t>沉迷虚拟网络</t>
+  </si>
+  <si>
+    <t>一般情况下，下列哪个地方不能大声说话？</t>
+  </si>
+  <si>
+    <t>操场上</t>
+  </si>
+  <si>
+    <t>自己家里</t>
+  </si>
+  <si>
+    <t>山坡上</t>
+  </si>
+  <si>
+    <t>下列属于植物的是：</t>
+  </si>
+  <si>
+    <t>冰淇淋</t>
+  </si>
+  <si>
+    <t>犀牛</t>
+  </si>
+  <si>
+    <t>树木</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>在夜晚时，站在地上往天空看最可能看到的是：</t>
+  </si>
+  <si>
+    <t>花草</t>
+  </si>
+  <si>
+    <t>河流</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>既方便又准时的地下交通工具是：</t>
+  </si>
+  <si>
+    <t>公共汽车</t>
+  </si>
+  <si>
+    <t>小明想找一本感兴趣的课外书，他可以去哪里找？</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>饭店</t>
+  </si>
+  <si>
+    <t>下列哪个物品不适合放在卧室？</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>衣柜</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>马桶</t>
+  </si>
+  <si>
+    <t>通常情况下，我们用什么写字？</t>
+  </si>
+  <si>
+    <t>笔</t>
+  </si>
+  <si>
+    <t>针</t>
+  </si>
+  <si>
+    <t>小明受了严重的伤，他应该去哪里救助？</t>
+  </si>
+  <si>
+    <t>奶茶店</t>
+  </si>
+  <si>
+    <t>下列场所未成年人可以出入的是：</t>
+  </si>
+  <si>
+    <t>网吧</t>
+  </si>
+  <si>
+    <t>酒吧</t>
+  </si>
+  <si>
+    <t>书店</t>
+  </si>
+  <si>
+    <t>歌舞厅</t>
+  </si>
+  <si>
+    <t>下列选项中，不属于中国城市的是：</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>武汉</t>
   </si>
   <si>
-    <t>宜春</t>
-  </si>
-  <si>
-    <t>浙江的省会是：</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>我国的首都是：</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>我国的教师节是每年的几月几日？</t>
-  </si>
-  <si>
-    <t>10月9日</t>
-  </si>
-  <si>
-    <t>9月9日</t>
-  </si>
-  <si>
-    <t>9月10日</t>
-  </si>
-  <si>
-    <t>1月9日</t>
-  </si>
-  <si>
-    <t>我国的国庆节是每年的几月几日？</t>
-  </si>
-  <si>
-    <t>10月1日</t>
-  </si>
-  <si>
-    <t>10月10日</t>
-  </si>
-  <si>
-    <t>11月1日</t>
-  </si>
-  <si>
-    <t>国际儿童节是每年的几月几日？</t>
-  </si>
-  <si>
-    <t>5月1日</t>
-  </si>
-  <si>
-    <t>6月1日</t>
-  </si>
-  <si>
-    <t>6月10日</t>
-  </si>
-  <si>
-    <t>5月10日</t>
-  </si>
-  <si>
-    <t>国际劳动节是每年的几月几日？</t>
-  </si>
-  <si>
-    <t>国际妇女节是每年的几月几日？</t>
-  </si>
-  <si>
-    <t>3月8日</t>
-  </si>
-  <si>
-    <t>3月9日</t>
-  </si>
-  <si>
-    <t>3月7日</t>
-  </si>
-  <si>
-    <t>3月6日</t>
-  </si>
-  <si>
-    <t>清明节往往在每年阳历几月几日前后？</t>
-  </si>
-  <si>
-    <t>4月5日</t>
-  </si>
-  <si>
-    <t>5月5日</t>
-  </si>
-  <si>
-    <t>3月5日</t>
-  </si>
-  <si>
-    <t>4月15日</t>
-  </si>
-  <si>
-    <t>春节是农历几月几号？</t>
-  </si>
-  <si>
-    <t>正月初一</t>
-  </si>
-  <si>
-    <t>八月十五</t>
-  </si>
-  <si>
-    <t>正月十五</t>
-  </si>
-  <si>
-    <t>五月初五</t>
-  </si>
-  <si>
-    <t>元宵节是农历几月几号？</t>
-  </si>
-  <si>
-    <t>中秋节是农历几月几号？</t>
-  </si>
-  <si>
-    <t>端午节是农历几月几号？</t>
-  </si>
-  <si>
-    <t>七夕节是农历几月几号？</t>
-  </si>
-  <si>
-    <t>七月初七</t>
-  </si>
-  <si>
-    <t>七月十四</t>
-  </si>
-  <si>
-    <t>二月十四</t>
-  </si>
-  <si>
-    <t>七月十五</t>
-  </si>
-  <si>
-    <t>月饼是中国哪一节日的传统食物？</t>
-  </si>
-  <si>
-    <t>清明节</t>
-  </si>
-  <si>
-    <t>中秋节</t>
-  </si>
-  <si>
-    <t>端午节</t>
-  </si>
-  <si>
-    <t>元宵节</t>
-  </si>
-  <si>
-    <t>元宵是中国哪一节日的传统食物？</t>
-  </si>
-  <si>
-    <t>粽子是中国哪一节日的传统食物？</t>
-  </si>
-  <si>
-    <t>世界上最高的山峰是:</t>
-  </si>
-  <si>
-    <t>珠穆拉玛峰</t>
-  </si>
-  <si>
-    <t>阿尔卑斯山</t>
-  </si>
-  <si>
-    <t>科罗拉多山</t>
-  </si>
-  <si>
-    <t>玉龙雪山</t>
-  </si>
-  <si>
-    <t>世界上人口最多的国家是：</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>世界上国土面积最大的国家是:</t>
-  </si>
-  <si>
-    <t>美国的首都是：</t>
-  </si>
-  <si>
-    <t>华盛顿</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>旧金山</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>英国的首都是：</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>罗马</t>
-  </si>
-  <si>
-    <t>法国的首都是：</t>
-  </si>
-  <si>
-    <t>德国的首都是：</t>
-  </si>
-  <si>
-    <t>意大利的首都是：</t>
-  </si>
-  <si>
-    <t>日本的首都是：</t>
-  </si>
-  <si>
-    <t>东京</t>
-  </si>
-  <si>
-    <t>京都</t>
-  </si>
-  <si>
-    <t>大阪</t>
-  </si>
-  <si>
-    <t>神户</t>
-  </si>
-  <si>
-    <t>韩国的首都是：</t>
-  </si>
-  <si>
-    <t>首尔</t>
-  </si>
-  <si>
-    <t>釜山</t>
-  </si>
-  <si>
-    <t>仁川</t>
-  </si>
-  <si>
-    <t>泰国的首都是：</t>
-  </si>
-  <si>
-    <t>曼谷</t>
-  </si>
-  <si>
-    <t>清迈</t>
-  </si>
-  <si>
-    <t>吉隆坡</t>
-  </si>
-  <si>
-    <t>芭提雅</t>
-  </si>
-  <si>
-    <t>俄罗斯的首都是：</t>
-  </si>
-  <si>
-    <t>莫斯科</t>
-  </si>
-  <si>
-    <t>圣彼得堡</t>
-  </si>
-  <si>
-    <t>在我国，需要紧急医疗救助时可以拨打：</t>
-  </si>
-  <si>
-    <t>在我国，人身安全受到威胁时可拨打：</t>
-  </si>
-  <si>
-    <t>在我国，遇到火灾可拨打：</t>
-  </si>
-  <si>
-    <t>下列哪一个不属于哺乳动物？</t>
-  </si>
-  <si>
-    <t>老虎</t>
-  </si>
-  <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>生物</t>
-  </si>
-  <si>
-    <t>下列哪一个属于哺乳动物？</t>
-  </si>
-  <si>
-    <t>蛇</t>
+    <t>长时间看电视的话，最容易感到疲惫的部位是：</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>下列各数中，最接近15的是：</t>
+  </si>
+  <si>
+    <t>下列物品中可以用来洗衣服的是：</t>
+  </si>
+  <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
+    <t>水杯</t>
+  </si>
+  <si>
+    <t>下列不属于良好品德的是：</t>
+  </si>
+  <si>
+    <t>尊老爱幼</t>
+  </si>
+  <si>
+    <t>嫌贫爱富</t>
+  </si>
+  <si>
+    <t>勤俭持家</t>
+  </si>
+  <si>
+    <t>在图书馆看书时正确的做法是：</t>
+  </si>
+  <si>
+    <t>大声说话</t>
+  </si>
+  <si>
+    <t>随意撕毁图书</t>
+  </si>
+  <si>
+    <t>安静看书</t>
+  </si>
+  <si>
+    <t>边吃东西边看书</t>
+  </si>
+  <si>
+    <t>下列网站中，不适合小学生浏览的是：</t>
+  </si>
+  <si>
+    <t>小学生拼音报</t>
+  </si>
+  <si>
+    <t>我爱语文网</t>
+  </si>
+  <si>
+    <t>中国数字科技馆</t>
+  </si>
+  <si>
+    <t>血腥恐怖故事网</t>
+  </si>
+  <si>
+    <t>以下交通工具中最环保的是：</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>摩托车</t>
+  </si>
+  <si>
+    <t>大货车</t>
+  </si>
+  <si>
+    <t>通常情况下，刷牙用什么？</t>
+  </si>
+  <si>
+    <t>牙刷</t>
+  </si>
+  <si>
+    <t>意念</t>
+  </si>
+  <si>
+    <t>下列哪项是可以经常在学校看到的公共设施？</t>
+  </si>
+  <si>
+    <t>火箭</t>
+  </si>
+  <si>
+    <t>交通信号灯</t>
+  </si>
+  <si>
+    <t>黑板</t>
+  </si>
+  <si>
+    <t>下列不属于长度单位的是：</t>
+  </si>
+  <si>
+    <t>厘米</t>
+  </si>
+  <si>
+    <t>分米</t>
+  </si>
+  <si>
+    <t>毫米</t>
+  </si>
+  <si>
+    <t>大米</t>
+  </si>
+  <si>
+    <t>小明若想知道此时的时间，可以通过：</t>
+  </si>
+  <si>
+    <t>体重秤</t>
+  </si>
+  <si>
+    <t>手表</t>
+  </si>
+  <si>
+    <t>跷跷板</t>
+  </si>
+  <si>
+    <t>电饭煲</t>
+  </si>
+  <si>
+    <t>我们应该怎么正确对待残疾人？</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>嘲笑</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>讥讽</t>
+  </si>
+  <si>
+    <t>亲情通常指以下哪两个人物之间的情感？</t>
+  </si>
+  <si>
+    <t>我和同学</t>
+  </si>
+  <si>
+    <t>我和老师</t>
+  </si>
+  <si>
+    <t>我和朋友</t>
+  </si>
+  <si>
+    <t>我和亲人</t>
+  </si>
+  <si>
+    <t>乘火车时，正确的做法是：</t>
+  </si>
+  <si>
+    <t>主动购票</t>
+  </si>
+  <si>
+    <t>用别人的旧票</t>
+  </si>
+  <si>
+    <t>偷偷溜进去</t>
+  </si>
+  <si>
+    <t>等查票时再补票</t>
+  </si>
+  <si>
+    <t>下列活动需要大家合作完成的是：</t>
+  </si>
+  <si>
+    <t>团体篮球比赛</t>
+  </si>
+  <si>
+    <t>大型拔河比赛</t>
+  </si>
+  <si>
+    <t>接力比赛</t>
+  </si>
+  <si>
+    <t>以上都是</t>
+  </si>
+  <si>
+    <t>下列选项中，温度最低的是：</t>
+  </si>
+  <si>
+    <t>零上二十摄氏度</t>
+  </si>
+  <si>
+    <t>零摄氏度</t>
+  </si>
+  <si>
+    <t>零下十摄氏度</t>
+  </si>
+  <si>
+    <t>零下二十摄氏度</t>
+  </si>
+  <si>
+    <t>冬天时，在哪里待着最温暖？</t>
+  </si>
+  <si>
+    <t>冰箱里</t>
+  </si>
+  <si>
+    <t>火炉旁</t>
+  </si>
+  <si>
+    <t>超低温冷库</t>
+  </si>
+  <si>
+    <t>室外</t>
+  </si>
+  <si>
+    <t>下列选项中，没有生命的是：</t>
+  </si>
+  <si>
+    <t>菊花</t>
+  </si>
+  <si>
+    <t>小猫</t>
+  </si>
+  <si>
+    <t>小狗</t>
+  </si>
+  <si>
+    <t>国内小学最高年级是：</t>
+  </si>
+  <si>
+    <t>六年级</t>
+  </si>
+  <si>
+    <t>七年级</t>
+  </si>
+  <si>
+    <t>四年级</t>
+  </si>
+  <si>
+    <t>五年级</t>
+  </si>
+  <si>
+    <t>下列物品中未成年人不得购买的是：</t>
+  </si>
+  <si>
+    <t>毛笔</t>
+  </si>
+  <si>
+    <t>彩票</t>
+  </si>
+  <si>
+    <t>胶水</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>法规</t>
+  </si>
+  <si>
+    <t>下列食物中海鲜过敏的患者应避免食用的是：</t>
+  </si>
+  <si>
+    <t>鸡肉</t>
+  </si>
+  <si>
+    <t>面筋</t>
+  </si>
+  <si>
+    <t>扇贝</t>
+  </si>
+  <si>
+    <t>杏鲍菇</t>
+  </si>
+  <si>
+    <t>水杯的主要用途是：</t>
+  </si>
+  <si>
+    <t>擀面</t>
+  </si>
+  <si>
+    <t>防身</t>
+  </si>
+  <si>
+    <t>放文具</t>
+  </si>
+  <si>
+    <t>装水</t>
+  </si>
+  <si>
+    <t>下列动物中没有翅膀的是：</t>
+  </si>
+  <si>
+    <t>飞鱼</t>
+  </si>
+  <si>
+    <t>丹顶鹤</t>
+  </si>
+  <si>
+    <t>金雕</t>
   </si>
   <si>
     <t>蝴蝶</t>
   </si>
   <si>
-    <t>鲸鱼属于哪一类动物？</t>
-  </si>
-  <si>
-    <t>哺乳动物</t>
-  </si>
-  <si>
-    <t>爬行动物</t>
-  </si>
-  <si>
-    <t>两栖动物</t>
-  </si>
-  <si>
-    <t>鱼类</t>
-  </si>
-  <si>
-    <t>乌龟属于哪一类动物？</t>
-  </si>
-  <si>
-    <t>鳄鱼属于哪一类动物？</t>
-  </si>
-  <si>
-    <t>海豚属于哪一类动物？</t>
-  </si>
-  <si>
-    <t>青蛙属于哪一类动物？</t>
-  </si>
-  <si>
-    <t>下列那一个属于鱼类？</t>
-  </si>
-  <si>
-    <t>鲸鱼</t>
-  </si>
-  <si>
-    <t>海豚</t>
-  </si>
-  <si>
-    <t>鳄鱼</t>
-  </si>
-  <si>
-    <t>海马</t>
-  </si>
-  <si>
-    <t>太阳是一颗：</t>
-  </si>
-  <si>
-    <t>恒星</t>
-  </si>
-  <si>
-    <t>彗星</t>
-  </si>
-  <si>
-    <t>行星</t>
-  </si>
-  <si>
-    <t>卫星</t>
-  </si>
-  <si>
-    <t>地球是一颗：</t>
-  </si>
-  <si>
-    <t>月球是一颗：</t>
-  </si>
-  <si>
-    <t>我们看到的星星通常是：</t>
-  </si>
-  <si>
-    <t>不属于太阳系八大行星的是：</t>
-  </si>
-  <si>
-    <t>金星</t>
-  </si>
-  <si>
-    <t>木星</t>
-  </si>
-  <si>
-    <t>火星</t>
-  </si>
-  <si>
-    <t>太阳系八大行星中，离太阳最近的是：</t>
-  </si>
-  <si>
-    <t>水星</t>
-  </si>
-  <si>
-    <t>太阳系八大行星中，离太阳最远的是：</t>
-  </si>
-  <si>
-    <t>天王星</t>
-  </si>
-  <si>
-    <t>海王星</t>
-  </si>
-  <si>
-    <t>土星</t>
-  </si>
-  <si>
-    <t>中华人民共和国是哪一年成立？</t>
-  </si>
-  <si>
-    <t>1949年</t>
-  </si>
-  <si>
-    <t>1948年</t>
-  </si>
-  <si>
-    <t>1950年</t>
-  </si>
-  <si>
-    <t>1947年</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>下面我国朝代中，最早的是：</t>
-  </si>
-  <si>
-    <t>唐</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>隋</t>
-  </si>
-  <si>
-    <t>康熙是哪一朝的皇帝？</t>
-  </si>
-  <si>
-    <t>宋</t>
-  </si>
-  <si>
-    <t>明</t>
-  </si>
-  <si>
-    <t>“桃园三结义”没有谁？</t>
-  </si>
-  <si>
-    <t>刘备</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-  </si>
-  <si>
-    <t>中国历史上第一个统一的封建王朝是：</t>
-  </si>
-  <si>
-    <t>春秋</t>
-  </si>
-  <si>
-    <t>秦朝</t>
-  </si>
-  <si>
-    <t>元朝</t>
-  </si>
-  <si>
-    <t>西汉</t>
-  </si>
-  <si>
-    <t>中国历史上唯一的女皇帝是：</t>
-  </si>
-  <si>
-    <t>武则天</t>
-  </si>
-  <si>
-    <t>杨玉环</t>
-  </si>
-  <si>
-    <t>慈禧</t>
-  </si>
-  <si>
-    <t>甄嬛</t>
-  </si>
-  <si>
-    <t>下列事物不存在于天空的是：</t>
-  </si>
-  <si>
-    <t>仙子</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>白云</t>
-  </si>
-  <si>
-    <t>月亮</t>
-  </si>
-  <si>
-    <t>下列食物中不可食用的是：</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>砒霜</t>
-  </si>
-  <si>
-    <t>鸡爪</t>
-  </si>
-  <si>
-    <t>鸭掌</t>
-  </si>
-  <si>
-    <t>春节的时候，按照传统，家里长辈常会给晚辈：</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>坏脸色</t>
-  </si>
-  <si>
-    <t>红包</t>
-  </si>
-  <si>
-    <t>彩礼</t>
-  </si>
-  <si>
-    <t>下列活动中不适合在学校中进行的是：</t>
-  </si>
-  <si>
-    <t>跑步</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>文艺汇演</t>
-  </si>
-  <si>
-    <t>密室逃脱</t>
-  </si>
-  <si>
-    <t>下列物品在家中不常见的是：</t>
-  </si>
-  <si>
-    <t>核反应堆</t>
-  </si>
-  <si>
-    <t>烧水壶</t>
-  </si>
-  <si>
-    <t>拖把</t>
-  </si>
-  <si>
-    <t>电脑</t>
-  </si>
-  <si>
-    <t>下列动物中体型最大的是：</t>
-  </si>
-  <si>
-    <t>鬣狗</t>
-  </si>
-  <si>
-    <t>棕熊</t>
-  </si>
-  <si>
-    <t>野兔</t>
-  </si>
-  <si>
-    <t>袋熊</t>
-  </si>
-  <si>
-    <t>下列家用电器中不能加热食物的是：</t>
-  </si>
-  <si>
-    <t>烤箱</t>
-  </si>
-  <si>
-    <t>微波炉</t>
-  </si>
-  <si>
-    <t>冰箱</t>
-  </si>
-  <si>
-    <t>电烤盘</t>
-  </si>
-  <si>
-    <t>下列物品通常不会放在厕所的是：</t>
-  </si>
-  <si>
-    <t>洗浴球</t>
-  </si>
-  <si>
-    <t>浴帽</t>
-  </si>
-  <si>
-    <t>洗洁精</t>
-  </si>
-  <si>
-    <t>音箱</t>
-  </si>
-  <si>
-    <t>中国人在本命年通常会穿戴什么颜色的衣物？</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>夫妻中一方出轨了，我们通常戏称无辜的一方戴了：</t>
-  </si>
-  <si>
-    <t>白帽</t>
-  </si>
-  <si>
-    <t>绿帽</t>
-  </si>
-  <si>
-    <t>红帽</t>
-  </si>
-  <si>
-    <t>蓝帽</t>
-  </si>
-  <si>
-    <t>通常情况下，下列家居用品中价格较低的是：</t>
-  </si>
-  <si>
-    <t>熨斗</t>
-  </si>
-  <si>
-    <t>吸尘器</t>
-  </si>
-  <si>
-    <t>扫帚</t>
-  </si>
-  <si>
-    <t>加湿器</t>
-  </si>
-  <si>
-    <t>下列物品在中国超市内不会销售的是：</t>
-  </si>
-  <si>
-    <t>粮油</t>
-  </si>
-  <si>
-    <t>生鲜肉</t>
-  </si>
-  <si>
-    <t>果蔬</t>
-  </si>
-  <si>
-    <t>枪支</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>JMMKLG</t>
-  </si>
-  <si>
-    <t>OPQRST</t>
-  </si>
-  <si>
-    <t>UVWXYZ</t>
-  </si>
-  <si>
-    <t>秋天到了，大雁要往哪个方向飞？</t>
-  </si>
-  <si>
-    <t>东</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>北</t>
-  </si>
-  <si>
-    <t>“1 2 5 6 7 8 9”打一成语：</t>
-  </si>
-  <si>
-    <t>丢三落四</t>
-  </si>
-  <si>
-    <t>接二连三</t>
-  </si>
-  <si>
-    <t>不三不四</t>
-  </si>
-  <si>
-    <t>三心二意</t>
-  </si>
-  <si>
-    <t>下列哪个数字长得像耳朵？</t>
-  </si>
-  <si>
-    <t>《百家姓》中的第一个姓氏是：</t>
-  </si>
-  <si>
-    <t>赵</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>孙</t>
-  </si>
-  <si>
-    <t>李</t>
-  </si>
-  <si>
-    <t>传统文化</t>
-  </si>
-  <si>
-    <t>夏季夜间行车时突然感觉到犯困，下列做法正确的是：</t>
-  </si>
-  <si>
-    <t>喝罐啤酒提神</t>
-  </si>
-  <si>
-    <t>边看直播边驾驶</t>
-  </si>
-  <si>
-    <t>立即去就近服务区</t>
-  </si>
-  <si>
-    <t>停在行车道休息</t>
-  </si>
-  <si>
-    <t>如果第二天要长途驾车，那么在前一晚应该：</t>
-  </si>
-  <si>
-    <t>通宵打牌</t>
-  </si>
-  <si>
-    <t>充分休息</t>
-  </si>
-  <si>
-    <t>通宵喝酒</t>
-  </si>
-  <si>
-    <t>工作到深夜</t>
-  </si>
-  <si>
-    <t>“19”里有1个十和几个一？</t>
-  </si>
-  <si>
-    <t>钟表的分针指着12，时针指着1时，是几点？</t>
-  </si>
-  <si>
-    <t>12：00</t>
-  </si>
-  <si>
-    <t>1：00</t>
-  </si>
-  <si>
-    <t>2：00</t>
-  </si>
-  <si>
-    <t>4：00</t>
-  </si>
-  <si>
-    <t>0.50元等于几角钱？</t>
-  </si>
-  <si>
-    <t>5角</t>
-  </si>
-  <si>
-    <t>10角</t>
-  </si>
-  <si>
-    <t>50角</t>
-  </si>
-  <si>
-    <t>100角</t>
-  </si>
-  <si>
-    <t>下列选项中，属于单数的是：</t>
-  </si>
-  <si>
-    <t>5个十和5个一，组成起来的数字是：</t>
-  </si>
-  <si>
-    <t>在钟面上，走得最快的是：</t>
-  </si>
-  <si>
-    <t>秒针</t>
-  </si>
-  <si>
-    <t>分钟</t>
-  </si>
-  <si>
-    <t>时针</t>
-  </si>
-  <si>
-    <t>以上都对</t>
-  </si>
-  <si>
-    <t>在钟面上，走的最慢的是：</t>
-  </si>
-  <si>
-    <t>在常见的钟面上，通常有多少个数字？</t>
-  </si>
-  <si>
-    <t>在钟面上，时针走一个大格是代表过了：</t>
-  </si>
-  <si>
-    <t>0.2小时</t>
-  </si>
-  <si>
-    <t>0.1小时</t>
-  </si>
-  <si>
-    <t>0.5小时</t>
-  </si>
-  <si>
-    <t>1小时</t>
-  </si>
-  <si>
-    <t>最大的三位数比最小的四位数小多少？</t>
-  </si>
-  <si>
-    <t>下列数字中，比169小的是：</t>
-  </si>
-  <si>
-    <t>钢笔每支12元，若买五支钢笔，需要支付多少元？</t>
-  </si>
-  <si>
-    <t>40元</t>
-  </si>
-  <si>
-    <t>50元</t>
-  </si>
-  <si>
-    <t>60元</t>
-  </si>
-  <si>
-    <t>比59多29的数是：</t>
-  </si>
-  <si>
-    <t>在钟面上6时整，分针和时针所成的角是什么角？</t>
-  </si>
-  <si>
-    <t>锐角</t>
-  </si>
-  <si>
-    <t>直角</t>
-  </si>
-  <si>
-    <t>钝角</t>
-  </si>
-  <si>
-    <t>平角</t>
-  </si>
-  <si>
-    <t>超市里买4袋饼干要付8元，买8袋饼干要付多少元？</t>
-  </si>
-  <si>
-    <t>8元</t>
-  </si>
-  <si>
-    <t>16元</t>
-  </si>
-  <si>
-    <t>24元</t>
-  </si>
-  <si>
-    <t>32元</t>
+    <t>端午节的传统美食是：</t>
+  </si>
+  <si>
+    <t>烤全羊</t>
+  </si>
+  <si>
+    <t>粽子</t>
+  </si>
+  <si>
+    <t>汤圆</t>
+  </si>
+  <si>
+    <t>肉夹馍</t>
+  </si>
+  <si>
+    <t>如果在路上迷路了，下列方法最有效的是：</t>
+  </si>
+  <si>
+    <t>呼叫奥特曼</t>
+  </si>
+  <si>
+    <t>占卜</t>
+  </si>
+  <si>
+    <t>向行人问路</t>
+  </si>
+  <si>
+    <t>随便走</t>
+  </si>
+  <si>
+    <t>打雷下雨了，为了安全应该：</t>
+  </si>
+  <si>
+    <t>躲在树林里</t>
+  </si>
+  <si>
+    <t>站在悬崖边</t>
+  </si>
+  <si>
+    <t>投诉雷公电母</t>
+  </si>
+  <si>
+    <t>呆在室内</t>
+  </si>
+  <si>
+    <t>孩子在公众场合大声嬉闹，家长应该：</t>
+  </si>
+  <si>
+    <t>悉心教导</t>
+  </si>
+  <si>
+    <t>大声叫骂</t>
+  </si>
+  <si>
+    <t>自闭躺平</t>
+  </si>
+  <si>
+    <t>堵住耳朵</t>
+  </si>
+  <si>
+    <t>在公共泳池游泳时，不应该：</t>
+  </si>
+  <si>
+    <t>带救生圈</t>
+  </si>
+  <si>
+    <t>偷偷小便</t>
+  </si>
+  <si>
+    <t>戴泳镜</t>
+  </si>
+  <si>
+    <t>快速游泳</t>
+  </si>
+  <si>
+    <t>家中停电了，下列不能用来照明的是：</t>
+  </si>
+  <si>
+    <t>蜡烛</t>
+  </si>
+  <si>
+    <t>手电筒</t>
+  </si>
+  <si>
+    <t>光头</t>
+  </si>
+  <si>
+    <t>路上发现小偷正在行窃，下列做法最稳妥的是：</t>
+  </si>
+  <si>
+    <t>用大道理感化他</t>
+  </si>
+  <si>
+    <t>从背后吓他一跳</t>
+  </si>
+  <si>
+    <t>殴打小偷</t>
+  </si>
+  <si>
+    <t>拍照为证报警</t>
+  </si>
+  <si>
+    <t>通常在哪一季节，我们可以堆雪人、打雪仗？</t>
+  </si>
+  <si>
+    <t>冬季</t>
+  </si>
+  <si>
+    <t>春季</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>日常生活中想要添置几件新衣服，我们可以：</t>
+  </si>
+  <si>
+    <t>求助仙女教母</t>
+  </si>
+  <si>
+    <t>淘宝购买</t>
+  </si>
+  <si>
+    <t>用魔法一键穿搭</t>
+  </si>
+  <si>
+    <t>打信号枪等空投</t>
+  </si>
+  <si>
+    <t>生活中常见的蝴蝶没有办法做到：</t>
+  </si>
+  <si>
+    <t>飞来飞去</t>
+  </si>
+  <si>
+    <t>采食花蜜</t>
+  </si>
+  <si>
+    <t>与你畅谈</t>
+  </si>
+  <si>
+    <t>繁衍后代</t>
+  </si>
+  <si>
+    <t>如果你常常头晕、出现幻觉、无法入睡，那么你应该：</t>
+  </si>
+  <si>
+    <t>求神拜佛</t>
+  </si>
+  <si>
+    <t>剃度出家</t>
+  </si>
+  <si>
+    <t>早起采食晨露</t>
+  </si>
+  <si>
+    <t>去医院就诊</t>
+  </si>
+  <si>
+    <t>在路上被骗子纠缠时，下列做法妥当的是：</t>
+  </si>
+  <si>
+    <t>劝阻无效及时报警</t>
+  </si>
+  <si>
+    <t>挥拳相向</t>
+  </si>
+  <si>
+    <t>呼唤蜻蜓队长</t>
+  </si>
+  <si>
+    <t>加入行骗行列</t>
+  </si>
+  <si>
+    <t>下列哪一道料理的主要材料是鸡肉：</t>
+  </si>
+  <si>
+    <t>东坡肉</t>
+  </si>
+  <si>
+    <t>叫花鸡</t>
+  </si>
+  <si>
+    <t>松鼠鳜鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>驾驶下列哪一交通工具不需要专门证书？</t>
+  </si>
+  <si>
+    <t>货车</t>
+  </si>
+  <si>
+    <t>我们常喝的可乐是一种：</t>
+  </si>
+  <si>
+    <t>农药</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>汽水</t>
+  </si>
+  <si>
+    <t>下列不属于常见家养宠物的是：</t>
+  </si>
+  <si>
+    <t>仓鼠</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +3026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2398,16 +3067,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2463,6 +3129,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2729,10 +3400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P156"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -2907,30 +3578,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -2939,31 +3610,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -2971,30 +3642,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -3007,26 +3678,26 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>40</v>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -3035,30 +3706,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -3067,30 +3738,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -3103,26 +3774,26 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>46</v>
+      <c r="C12" s="7">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -3135,26 +3806,26 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7">
-        <v>56</v>
-      </c>
-      <c r="E13" s="7">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -3183,10 +3854,10 @@
         <v>74</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -3199,26 +3870,26 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>27</v>
+      <c r="G15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -3247,10 +3918,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -3279,10 +3950,10 @@
         <v>89</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3311,10 +3982,10 @@
         <v>94</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -3330,23 +4001,23 @@
       <c r="B19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="13">
+        <v>7238</v>
+      </c>
+      <c r="D19" s="13">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
         <v>99</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -3360,25 +4031,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="13">
-        <v>7238</v>
-      </c>
-      <c r="D20" s="13">
-        <v>65535</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>99</v>
-      </c>
       <c r="G20" s="13" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -3410,7 +4081,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -3439,10 +4110,10 @@
         <v>110</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -3459,22 +4130,22 @@
         <v>111</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="F23" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -3483,27 +4154,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="G24" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>27</v>
@@ -3515,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3535,7 +4206,7 @@
         <v>122</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>27</v>
@@ -3558,19 +4229,19 @@
         <v>124</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="G26" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -3584,13 +4255,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>130</v>
@@ -3599,10 +4270,10 @@
         <v>131</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -3631,10 +4302,10 @@
         <v>136</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -3663,10 +4334,10 @@
         <v>141</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -3695,10 +4366,10 @@
         <v>146</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -3707,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3727,7 +4398,7 @@
         <v>151</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>27</v>
@@ -3746,24 +4417,24 @@
       <c r="B32" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3</v>
+      </c>
+      <c r="F32" s="13">
+        <v>4</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -3771,30 +4442,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="33" customHeight="1" spans="1:10">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="F33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>162</v>
+      <c r="H33" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -3807,26 +4478,26 @@
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="13">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2</v>
-      </c>
-      <c r="E34" s="13">
-        <v>3</v>
-      </c>
-      <c r="F34" s="13">
-        <v>4</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>46</v>
+      <c r="G34" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -3840,19 +4511,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>29</v>
@@ -3872,22 +4543,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>27</v>
@@ -3904,19 +4575,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>29</v>
@@ -3936,22 +4607,22 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>27</v>
@@ -3968,19 +4639,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>29</v>
@@ -4000,22 +4671,22 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>27</v>
@@ -4032,22 +4703,22 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>27</v>
@@ -4064,22 +4735,22 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>27</v>
@@ -4096,22 +4767,22 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>27</v>
@@ -4128,22 +4799,22 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>27</v>
@@ -4160,22 +4831,22 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>27</v>
@@ -4192,22 +4863,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>27</v>
@@ -4224,22 +4895,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G47" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>27</v>
@@ -4256,22 +4927,22 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>27</v>
@@ -4288,22 +4959,22 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>27</v>
@@ -4320,22 +4991,22 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>27</v>
@@ -4352,22 +5023,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>27</v>
@@ -4384,25 +5055,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -4415,23 +5086,23 @@
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>29</v>
+      <c r="G53" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>27</v>
@@ -4448,25 +5119,25 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -4480,25 +5151,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I55" s="3">
         <v>0</v>
@@ -4511,26 +5182,26 @@
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>26</v>
+      <c r="C56" s="10">
+        <v>120</v>
+      </c>
+      <c r="D56" s="10">
+        <v>119</v>
+      </c>
+      <c r="E56" s="10">
+        <v>122</v>
+      </c>
+      <c r="F56" s="10">
+        <v>110</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
@@ -4544,25 +5215,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>217</v>
+      <c r="C57" s="10">
+        <v>120</v>
+      </c>
+      <c r="D57" s="10">
+        <v>119</v>
+      </c>
+      <c r="E57" s="10">
+        <v>122</v>
+      </c>
+      <c r="F57" s="10">
+        <v>110</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -4576,25 +5247,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>220</v>
+      <c r="C58" s="10">
+        <v>120</v>
+      </c>
+      <c r="D58" s="10">
+        <v>119</v>
+      </c>
+      <c r="E58" s="10">
+        <v>122</v>
+      </c>
+      <c r="F58" s="10">
+        <v>110</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4607,26 +5278,26 @@
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>63</v>
+      <c r="B59" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -4639,26 +5310,26 @@
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>63</v>
+      <c r="G60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -4671,26 +5342,26 @@
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>63</v>
+      <c r="D61" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4703,26 +5374,26 @@
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="B62" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>63</v>
+      <c r="H62" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4735,26 +5406,26 @@
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>63</v>
+      <c r="B63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
@@ -4767,26 +5438,26 @@
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>63</v>
+      <c r="B64" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
@@ -4799,26 +5470,26 @@
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>63</v>
+      <c r="B65" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
@@ -4831,26 +5502,26 @@
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>63</v>
+      <c r="B66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4863,26 +5534,26 @@
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="B67" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>63</v>
+      <c r="H67" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
@@ -4895,26 +5566,26 @@
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>63</v>
+      <c r="B68" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
@@ -4927,26 +5598,26 @@
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>63</v>
+      <c r="B69" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
@@ -4959,26 +5630,26 @@
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>63</v>
+      <c r="B70" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4991,26 +5662,26 @@
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>63</v>
+      <c r="B71" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="I71" s="3">
         <v>0</v>
@@ -5023,26 +5694,26 @@
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>63</v>
+      <c r="B72" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -5051,30 +5722,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:16">
+    <row r="73" customHeight="1" spans="1:10">
       <c r="A73" s="3">
         <v>70</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
@@ -5082,35 +5753,31 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:16">
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
       <c r="A74" s="3">
         <v>71</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5">
+        <v>8</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>27</v>
+      <c r="H74" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
@@ -5118,35 +5785,31 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:16">
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
       <c r="A75" s="3">
         <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
@@ -5154,34 +5817,30 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:16">
+    </row>
+    <row r="76" customHeight="1" spans="1:10">
       <c r="A76" s="3">
         <v>73</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I76" s="3">
@@ -5190,34 +5849,30 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:16">
+    </row>
+    <row r="77" customHeight="1" spans="1:10">
       <c r="A77" s="3">
         <v>74</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="3">
@@ -5226,35 +5881,31 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:16">
+    </row>
+    <row r="78" customHeight="1" spans="1:10">
       <c r="A78" s="3">
         <v>75</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5">
+        <v>10</v>
+      </c>
+      <c r="F78" s="5">
+        <v>19</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
@@ -5262,35 +5913,31 @@
       <c r="J78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
     </row>
     <row r="79" customHeight="1" spans="1:10">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>297</v>
+      <c r="B79" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
@@ -5304,25 +5951,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
@@ -5336,25 +5983,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>301</v>
+        <v>314</v>
+      </c>
+      <c r="C81" s="5">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -5368,25 +6015,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>301</v>
+        <v>315</v>
+      </c>
+      <c r="C82" s="5">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20</v>
+      </c>
+      <c r="E82" s="5">
+        <v>51</v>
+      </c>
+      <c r="F82" s="5">
+        <v>55</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>27</v>
+      <c r="H82" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I82" s="3">
         <v>0</v>
@@ -5399,25 +6046,25 @@
       <c r="A83" s="3">
         <v>80</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="G83" s="13" t="s">
+      <c r="B83" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I83" s="3">
@@ -5431,25 +6078,25 @@
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="3" t="s">
+      <c r="B84" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I84" s="3">
@@ -5463,25 +6110,25 @@
       <c r="A85" s="3">
         <v>82</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="3" t="s">
+      <c r="B85" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" s="5">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5">
+        <v>12</v>
+      </c>
+      <c r="E85" s="5">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5">
+        <v>24</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I85" s="3">
@@ -5495,25 +6142,25 @@
       <c r="A86" s="3">
         <v>83</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H86" s="3" t="s">
+      <c r="B86" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="3">
@@ -5527,26 +6174,26 @@
       <c r="A87" s="3">
         <v>84</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G87" s="11" t="s">
+      <c r="B87" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <v>89</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="5">
+        <v>9899</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>63</v>
+      <c r="H87" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I87" s="3">
         <v>0</v>
@@ -5559,26 +6206,26 @@
       <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>63</v>
+      <c r="B88" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="5">
+        <v>212</v>
+      </c>
+      <c r="D88" s="5">
+        <v>165</v>
+      </c>
+      <c r="E88" s="5">
+        <v>185</v>
+      </c>
+      <c r="F88" s="5">
+        <v>179</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
@@ -5591,26 +6238,26 @@
       <c r="A89" s="3">
         <v>86</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>63</v>
+      <c r="B89" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -5619,30 +6266,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="90" customHeight="1" spans="1:10">
       <c r="A90" s="3">
         <v>87</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>63</v>
+      <c r="B90" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="5">
+        <v>68</v>
+      </c>
+      <c r="D90" s="5">
+        <v>78</v>
+      </c>
+      <c r="E90" s="5">
+        <v>88</v>
+      </c>
+      <c r="F90" s="5">
+        <v>98</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
@@ -5655,26 +6302,26 @@
       <c r="A91" s="3">
         <v>88</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>63</v>
+      <c r="E91" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5688,25 +6335,25 @@
         <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
@@ -5719,26 +6366,26 @@
       <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>63</v>
+      <c r="B93" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
@@ -5752,25 +6399,25 @@
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5784,25 +6431,25 @@
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
@@ -5816,25 +6463,25 @@
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5848,25 +6495,25 @@
         <v>94</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
@@ -5880,25 +6527,25 @@
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I98" s="3">
         <v>0</v>
@@ -5911,26 +6558,26 @@
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C99" s="10">
-        <v>120</v>
-      </c>
-      <c r="D99" s="10">
-        <v>119</v>
-      </c>
-      <c r="E99" s="10">
-        <v>122</v>
-      </c>
-      <c r="F99" s="10">
-        <v>110</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>29</v>
+      <c r="B99" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I99" s="3">
         <v>0</v>
@@ -5944,25 +6591,25 @@
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C100" s="10">
-        <v>120</v>
-      </c>
-      <c r="D100" s="10">
-        <v>119</v>
-      </c>
-      <c r="E100" s="10">
-        <v>122</v>
-      </c>
-      <c r="F100" s="10">
-        <v>110</v>
+        <v>377</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5976,22 +6623,22 @@
         <v>98</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C101" s="10">
-        <v>120</v>
-      </c>
-      <c r="D101" s="10">
-        <v>119</v>
-      </c>
-      <c r="E101" s="10">
-        <v>122</v>
-      </c>
-      <c r="F101" s="10">
-        <v>110</v>
+        <v>379</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>27</v>
@@ -6007,26 +6654,26 @@
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>57</v>
+      <c r="B102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6040,25 +6687,25 @@
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I103" s="3">
         <v>0</v>
@@ -6072,25 +6719,25 @@
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="I104" s="3">
         <v>0</v>
@@ -6104,25 +6751,25 @@
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I105" s="3">
         <v>0</v>
@@ -6136,25 +6783,25 @@
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
@@ -6168,25 +6815,25 @@
         <v>104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>366</v>
+        <v>58</v>
       </c>
       <c r="I107" s="3">
         <v>0</v>
@@ -6200,25 +6847,25 @@
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I108" s="3">
         <v>0</v>
@@ -6232,25 +6879,25 @@
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="I109" s="3">
         <v>0</v>
@@ -6263,26 +6910,26 @@
       <c r="A110" s="3">
         <v>107</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>29</v>
+      <c r="B110" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I110" s="3">
         <v>0</v>
@@ -6295,26 +6942,26 @@
       <c r="A111" s="3">
         <v>108</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>57</v>
+      <c r="B111" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I111" s="3">
         <v>0</v>
@@ -6327,26 +6974,26 @@
       <c r="A112" s="3">
         <v>109</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>26</v>
+      <c r="B112" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I112" s="3">
         <v>0</v>
@@ -6360,25 +7007,25 @@
         <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>388</v>
+        <v>439</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I113" s="3">
         <v>0</v>
@@ -6392,25 +7039,25 @@
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I114" s="3">
         <v>0</v>
@@ -6424,25 +7071,25 @@
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>397</v>
+        <v>206</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
@@ -6456,25 +7103,25 @@
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I116" s="3">
         <v>0</v>
@@ -6488,25 +7135,25 @@
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="I117" s="3">
         <v>0</v>
@@ -6520,25 +7167,25 @@
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
@@ -6552,25 +7199,25 @@
         <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="I119" s="3">
         <v>0</v>
@@ -6584,25 +7231,25 @@
         <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="I120" s="3">
         <v>0</v>
@@ -6616,25 +7263,25 @@
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="I121" s="3">
         <v>0</v>
@@ -6647,26 +7294,26 @@
       <c r="A122" s="3">
         <v>119</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>407</v>
+      <c r="B122" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I122" s="3">
         <v>0</v>
@@ -6679,25 +7326,25 @@
       <c r="A123" s="3">
         <v>120</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="5" t="s">
+      <c r="B123" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="14" t="s">
         <v>27</v>
       </c>
       <c r="I123" s="3">
@@ -6711,26 +7358,26 @@
       <c r="A124" s="3">
         <v>121</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>27</v>
+      <c r="B124" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="I124" s="3">
         <v>0</v>
@@ -6743,25 +7390,25 @@
       <c r="A125" s="3">
         <v>122</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H125" s="5" t="s">
+      <c r="B125" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I125" s="3">
@@ -6775,25 +7422,25 @@
       <c r="A126" s="3">
         <v>123</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="5" t="s">
+      <c r="B126" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I126" s="3">
@@ -6807,25 +7454,25 @@
       <c r="A127" s="3">
         <v>124</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G127" s="5" t="s">
+      <c r="B127" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I127" s="3">
@@ -6839,26 +7486,26 @@
       <c r="A128" s="3">
         <v>125</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>366</v>
+      <c r="B128" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I128" s="3">
         <v>0</v>
@@ -6871,25 +7518,25 @@
       <c r="A129" s="3">
         <v>126</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H129" s="5" t="s">
+      <c r="B129" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I129" s="3">
@@ -6903,25 +7550,25 @@
       <c r="A130" s="3">
         <v>127</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G130" s="5" t="s">
+      <c r="B130" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I130" s="3">
@@ -6935,25 +7582,25 @@
       <c r="A131" s="3">
         <v>128</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H131" s="5" t="s">
+      <c r="B131" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I131" s="3">
@@ -6967,25 +7614,25 @@
       <c r="A132" s="3">
         <v>129</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H132" s="5" t="s">
+      <c r="B132" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I132" s="3">
@@ -6999,25 +7646,25 @@
       <c r="A133" s="3">
         <v>130</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H133" s="5" t="s">
+      <c r="B133" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I133" s="3">
@@ -7031,25 +7678,25 @@
       <c r="A134" s="3">
         <v>131</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" s="5" t="s">
+      <c r="B134" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I134" s="3">
@@ -7063,26 +7710,26 @@
       <c r="A135" s="3">
         <v>132</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>164</v>
+      <c r="B135" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I135" s="3">
         <v>0</v>
@@ -7095,25 +7742,25 @@
       <c r="A136" s="3">
         <v>133</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H136" s="5" t="s">
+      <c r="B136" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H136" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I136" s="3">
@@ -7127,26 +7774,26 @@
       <c r="A137" s="3">
         <v>134</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>164</v>
+      <c r="B137" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="I137" s="3">
         <v>0</v>
@@ -7159,26 +7806,26 @@
       <c r="A138" s="3">
         <v>135</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C138" s="5">
-        <v>3</v>
-      </c>
-      <c r="D138" s="5">
-        <v>4</v>
-      </c>
-      <c r="E138" s="5">
-        <v>6</v>
-      </c>
-      <c r="F138" s="5">
-        <v>8</v>
-      </c>
-      <c r="G138" s="5" t="s">
+      <c r="B138" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H138" s="5" t="s">
-        <v>164</v>
+      <c r="H138" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I138" s="3">
         <v>0</v>
@@ -7191,26 +7838,26 @@
       <c r="A139" s="3">
         <v>136</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>508</v>
+      <c r="B139" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I139" s="3">
         <v>0</v>
@@ -7223,26 +7870,26 @@
       <c r="A140" s="3">
         <v>137</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>27</v>
+      <c r="B140" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -7255,25 +7902,25 @@
       <c r="A141" s="3">
         <v>138</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H141" s="5" t="s">
+      <c r="B141" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I141" s="3">
@@ -7287,26 +7934,26 @@
       <c r="A142" s="3">
         <v>139</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C142" s="5">
-        <v>1</v>
-      </c>
-      <c r="D142" s="5">
-        <v>9</v>
-      </c>
-      <c r="E142" s="5">
-        <v>10</v>
-      </c>
-      <c r="F142" s="5">
-        <v>19</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>164</v>
+      <c r="B142" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -7319,26 +7966,26 @@
       <c r="A143" s="3">
         <v>140</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>164</v>
+      <c r="B143" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
@@ -7351,26 +7998,26 @@
       <c r="A144" s="3">
         <v>141</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G144" s="5" t="s">
+      <c r="B144" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H144" s="5" t="s">
-        <v>164</v>
+      <c r="H144" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -7383,26 +8030,26 @@
       <c r="A145" s="3">
         <v>142</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C145" s="5">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5">
-        <v>8</v>
-      </c>
-      <c r="E145" s="5">
-        <v>2</v>
-      </c>
-      <c r="F145" s="5">
-        <v>9</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>164</v>
+      <c r="B145" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I145" s="3">
         <v>0</v>
@@ -7415,26 +8062,26 @@
       <c r="A146" s="3">
         <v>143</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C146" s="5">
-        <v>15</v>
-      </c>
-      <c r="D146" s="5">
-        <v>20</v>
-      </c>
-      <c r="E146" s="5">
-        <v>51</v>
-      </c>
-      <c r="F146" s="5">
-        <v>55</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>164</v>
+      <c r="B146" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
@@ -7447,25 +8094,25 @@
       <c r="A147" s="3">
         <v>144</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H147" s="5" t="s">
+      <c r="B147" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I147" s="3">
@@ -7479,25 +8126,25 @@
       <c r="A148" s="3">
         <v>145</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H148" s="5" t="s">
+      <c r="B148" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I148" s="3">
@@ -7511,25 +8158,25 @@
       <c r="A149" s="3">
         <v>146</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C149" s="5">
-        <v>6</v>
-      </c>
-      <c r="D149" s="5">
-        <v>12</v>
-      </c>
-      <c r="E149" s="5">
-        <v>18</v>
-      </c>
-      <c r="F149" s="5">
-        <v>24</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H149" s="5" t="s">
+      <c r="B149" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I149" s="3">
@@ -7543,25 +8190,25 @@
       <c r="A150" s="3">
         <v>147</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" s="5" t="s">
+      <c r="B150" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H150" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I150" s="3">
@@ -7575,26 +8222,26 @@
       <c r="A151" s="3">
         <v>148</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="C151" s="5">
-        <v>1</v>
-      </c>
-      <c r="D151" s="5">
-        <v>89</v>
-      </c>
-      <c r="E151" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F151" s="5">
-        <v>9899</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>164</v>
+      <c r="B151" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I151" s="3">
         <v>0</v>
@@ -7607,26 +8254,26 @@
       <c r="A152" s="3">
         <v>149</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C152" s="5">
-        <v>212</v>
-      </c>
-      <c r="D152" s="5">
-        <v>165</v>
-      </c>
-      <c r="E152" s="5">
-        <v>185</v>
-      </c>
-      <c r="F152" s="5">
-        <v>179</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>164</v>
+      <c r="B152" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I152" s="3">
         <v>0</v>
@@ -7639,26 +8286,26 @@
       <c r="A153" s="3">
         <v>150</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>164</v>
+      <c r="B153" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C153" s="3">
+        <v>16</v>
+      </c>
+      <c r="D153" s="3">
+        <v>13</v>
+      </c>
+      <c r="E153" s="3">
+        <v>17</v>
+      </c>
+      <c r="F153" s="3">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I153" s="3">
         <v>0</v>
@@ -7671,26 +8318,26 @@
       <c r="A154" s="3">
         <v>151</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C154" s="5">
-        <v>68</v>
-      </c>
-      <c r="D154" s="5">
-        <v>78</v>
-      </c>
-      <c r="E154" s="5">
-        <v>88</v>
-      </c>
-      <c r="F154" s="5">
-        <v>98</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>164</v>
+      <c r="B154" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I154" s="3">
         <v>0</v>
@@ -7703,26 +8350,26 @@
       <c r="A155" s="3">
         <v>152</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>164</v>
+      <c r="B155" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="I155" s="3">
         <v>0</v>
@@ -7735,31 +8382,1119 @@
       <c r="A156" s="3">
         <v>153</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="5" t="s">
+      <c r="B156" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:10">
+      <c r="A157" s="3">
+        <v>154</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0</v>
+      </c>
+      <c r="J157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:10">
+      <c r="A158" s="3">
+        <v>155</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:10">
+      <c r="A159" s="3">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:10">
+      <c r="A160" s="3">
+        <v>157</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:10">
+      <c r="A161" s="3">
+        <v>158</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:10">
+      <c r="A162" s="3">
+        <v>159</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:10">
+      <c r="A163" s="3">
+        <v>160</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:10">
+      <c r="A164" s="3">
+        <v>161</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
+      <c r="J164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:10">
+      <c r="A165" s="3">
+        <v>162</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:10">
+      <c r="A166" s="3">
+        <v>163</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:10">
+      <c r="A167" s="3">
         <v>164</v>
       </c>
-      <c r="I156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3">
+      <c r="B167" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:10">
+      <c r="A168" s="3">
+        <v>165</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:10">
+      <c r="A169" s="3">
+        <v>166</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:10">
+      <c r="A170" s="3">
+        <v>167</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:10">
+      <c r="A171" s="3">
+        <v>168</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0</v>
+      </c>
+      <c r="J171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:10">
+      <c r="A172" s="3">
+        <v>169</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0</v>
+      </c>
+      <c r="J172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:10">
+      <c r="A173" s="3">
+        <v>170</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0</v>
+      </c>
+      <c r="J173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:10">
+      <c r="A174" s="3">
+        <v>171</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:10">
+      <c r="A175" s="3">
+        <v>172</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0</v>
+      </c>
+      <c r="J175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:10">
+      <c r="A176" s="3">
+        <v>173</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0</v>
+      </c>
+      <c r="J176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:10">
+      <c r="A177" s="3">
+        <v>174</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:10">
+      <c r="A178" s="3">
+        <v>175</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:10">
+      <c r="A179" s="3">
+        <v>176</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:10">
+      <c r="A180" s="3">
+        <v>177</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:10">
+      <c r="A181" s="3">
+        <v>178</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:10">
+      <c r="A182" s="3">
+        <v>179</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0</v>
+      </c>
+      <c r="J182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:10">
+      <c r="A183" s="3">
+        <v>180</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:10">
+      <c r="A184" s="3">
+        <v>181</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:10">
+      <c r="A185" s="3">
+        <v>182</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:10">
+      <c r="A186" s="3">
+        <v>183</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:10">
+      <c r="A187" s="3">
+        <v>184</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0</v>
+      </c>
+      <c r="J187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:10">
+      <c r="A188" s="3">
+        <v>185</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0</v>
+      </c>
+      <c r="J188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:10">
+      <c r="A189" s="3">
+        <v>186</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0</v>
+      </c>
+      <c r="J189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:10">
+      <c r="A190" s="3">
+        <v>187</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0</v>
+      </c>
+      <c r="J190" s="3">
         <v>0</v>
       </c>
     </row>
